--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -336,6 +336,22 @@
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$36</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -398,7 +414,7 @@
     <t>pass</t>
   </si>
   <si>
-    <t>2017-10-06 12:01:59</t>
+    <t>2017-10-07 02:01:04</t>
   </si>
   <si>
     <t xml:space="preserve">   </t>
@@ -434,7 +450,7 @@
     <t>Search</t>
   </si>
   <si>
-    <t>2017-10-06 12:02:01</t>
+    <t>2017-10-07 02:01:06</t>
   </si>
   <si>
     <t>Search box</t>
@@ -476,7 +492,7 @@
     <t>Search(Load the saved)</t>
   </si>
   <si>
-    <t>2017-10-06 12:02:04</t>
+    <t>2017-10-07 02:01:09</t>
   </si>
   <si>
     <t>(Load the saved)</t>

--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -1,38 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jia/Dropbox/v2test/RemoteCases/RECEIVER1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17620"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tests1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tests2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tests1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tests2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests1!$A$1:$K$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
   <si>
     <t>Run</t>
   </si>
@@ -88,7 +90,7 @@
     <t>pass</t>
   </si>
   <si>
-    <t>2017-10-06 12:01:59</t>
+    <t>2017-10-09 11:53:07</t>
   </si>
   <si>
     <t xml:space="preserve">   </t>
@@ -124,7 +126,7 @@
     <t>Search</t>
   </si>
   <si>
-    <t>2017-10-06 12:02:01</t>
+    <t>2017-10-09 11:53:09</t>
   </si>
   <si>
     <t>Search box</t>
@@ -166,7 +168,7 @@
     <t>Search(Load the saved)</t>
   </si>
   <si>
-    <t>2017-10-06 12:02:04</t>
+    <t>2017-10-09 11:53:12</t>
   </si>
   <si>
     <t>(Load the saved)</t>
@@ -253,12 +255,18 @@
     <t>RETURN</t>
   </si>
   <si>
+    <t>AT.BG.Shell.01</t>
+  </si>
+  <si>
     <t>Shell Command</t>
   </si>
   <si>
     <t>shell</t>
   </si>
   <si>
+    <t>command</t>
+  </si>
+  <si>
     <t>ls -l</t>
   </si>
   <si>
@@ -271,9 +279,36 @@
     <t>config.ini</t>
   </si>
   <si>
+    <t>AT.BG.Shell.02</t>
+  </si>
+  <si>
+    <t>Bash Script</t>
+  </si>
+  <si>
+    <t>bash</t>
+  </si>
+  <si>
     <t>Example.sh</t>
   </si>
   <si>
+    <t>AT.BG.Shell.03</t>
+  </si>
+  <si>
+    <t>Python Script</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>Example.py</t>
+  </si>
+  <si>
+    <t>Executable File</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
     <t>AT.HTTP.Get.01</t>
   </si>
   <si>
@@ -431,121 +466,74 @@
   </si>
   <si>
     <t>AT.Login.13</t>
-  </si>
-  <si>
-    <t>command</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bash</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bash Script</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT.BG.Shell.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT.BG.Shell.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT.BG.Shell.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python Script</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>python</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Example.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Executable File</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>file</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Example.sh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="10"/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="11"/>
       <sz val="12"/>
-      <color theme="11"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="4"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,44 +557,38 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="已访问的超链接" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -872,32 +854,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showRuler="0" tabSelected="1" topLeftCell="A10" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11" style="7" customWidth="1"/>
-    <col min="7" max="7" width="38.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="32" width="10.83203125" style="7" customWidth="1"/>
-    <col min="33" max="16384" width="10.83203125" style="7"/>
+    <col customWidth="1" max="1" min="1" style="7" width="6.5"/>
+    <col customWidth="1" max="2" min="2" style="7" width="18.1640625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="7" width="21.33203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="18"/>
+    <col customWidth="1" max="5" min="5" style="7" width="9"/>
+    <col customWidth="1" max="6" min="6" style="7" width="11"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="38.1640625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="7" width="16.6640625"/>
+    <col customWidth="1" max="9" min="9" style="7" width="31.6640625"/>
+    <col customWidth="1" max="10" min="10" style="7" width="8.33203125"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="7" width="80.1640625"/>
+    <col customWidth="1" max="32" min="13" style="7" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="33" style="7" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -935,7 +921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -951,21 +937,21 @@
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="n"/>
       <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -981,8 +967,8 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
@@ -995,14 +981,14 @@
       <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L3" s="3" t="n"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
@@ -1010,7 +996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1026,8 +1012,8 @@
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1040,9 +1026,9 @@
       <c r="K6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L6" s="3" t="n"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="D7" s="7" t="s">
         <v>31</v>
       </c>
@@ -1059,7 +1045,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="D8" s="7" t="s">
         <v>36</v>
       </c>
@@ -1070,7 +1056,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="D9" s="7" t="s">
         <v>39</v>
       </c>
@@ -1084,7 +1070,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1100,8 +1086,8 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
       <c r="H10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1114,9 +1100,9 @@
       <c r="K10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="D11" s="7" t="s">
         <v>45</v>
       </c>
@@ -1133,15 +1119,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="H12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
@@ -1152,7 +1138,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -1168,8 +1154,8 @@
       <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
       <c r="H14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1182,9 +1168,9 @@
       <c r="K14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="n"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="D15" s="7" t="s">
         <v>54</v>
       </c>
@@ -1201,7 +1187,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="D16" s="7" t="s">
         <v>58</v>
       </c>
@@ -1218,7 +1204,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="D17" s="7" t="s">
         <v>61</v>
       </c>
@@ -1231,11 +1217,11 @@
       <c r="H17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="D18" s="7" t="s">
         <v>41</v>
       </c>
@@ -1243,7 +1229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
@@ -1259,8 +1245,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
       <c r="H19" s="2" t="s">
         <v>16</v>
       </c>
@@ -1273,9 +1259,9 @@
       <c r="K19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L19" s="3" t="n"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="D20" s="7" t="s">
         <v>68</v>
       </c>
@@ -1288,11 +1274,11 @@
       <c r="H20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="H21" s="7" t="s">
         <v>34</v>
       </c>
@@ -1300,7 +1286,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="D22" s="7" t="s">
         <v>58</v>
       </c>
@@ -1317,7 +1303,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="D23" s="7" t="s">
         <v>70</v>
       </c>
@@ -1328,484 +1314,489 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="D24" s="3" t="n"/>
       <c r="E24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F24" s="3" t="n"/>
+      <c r="G24" s="3" t="n"/>
       <c r="H24" s="2" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="L24" s="3" t="n"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="H25" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D26" s="3" t="n"/>
       <c r="E26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F26" s="3" t="n"/>
+      <c r="G26" s="3" t="n"/>
       <c r="H26" s="2" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="L26" s="3" t="n"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="H27" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="D28" s="3" t="n"/>
       <c r="E28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F28" s="3" t="n"/>
+      <c r="G28" s="3" t="n"/>
       <c r="H28" s="2" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="L28" s="3" t="n"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="H29" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="D30" s="3" t="n"/>
       <c r="E30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F30" s="3" t="n"/>
+      <c r="G30" s="3" t="n"/>
       <c r="H30" s="2" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="L30" s="3" t="n"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="H31" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="D32" s="3" t="n"/>
       <c r="E32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="F32" s="3" t="n"/>
+      <c r="G32" s="3" t="n"/>
       <c r="H32" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="H33" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="D34" s="3" t="n"/>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="H34" s="3" t="n"/>
+      <c r="I34" s="3" t="n"/>
       <c r="J34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="L34" s="3" t="n"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="F35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="F36" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F36" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" s="7">
-        <v>2</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:12">
       <c r="H37" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I37" s="7">
+        <v>108</v>
+      </c>
+      <c r="I37" s="7" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="H38" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="I38" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="H39" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="H40" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="D41" s="3" t="n"/>
       <c r="E41" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="G41" s="2" t="n"/>
+      <c r="H41" s="3" t="n"/>
+      <c r="I41" s="3" t="n"/>
       <c r="J41" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="L41" s="3" t="n"/>
+    </row>
+    <row r="42" spans="1:12">
       <c r="F42" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="F43" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="F44" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="F45" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="F46" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="F47" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="F48" s="7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F43" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F44" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F45" s="7" t="s">
+      <c r="G48" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19" r="49" spans="1:12">
+      <c r="H49" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="I49" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F46" s="7" t="s">
+    <row r="50" spans="1:12">
+      <c r="H50" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F47" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F48" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G48" s="7">
-        <v>5</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H49" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H50" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="I50" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="D51" s="3" t="n"/>
       <c r="E51" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="F51" s="3" t="n"/>
+      <c r="G51" s="3" t="n"/>
       <c r="H51" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="L51" s="3" t="n"/>
+    </row>
+    <row r="52" spans="1:12">
       <c r="H52" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="H53" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="H54" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="H55" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="H56" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="H57" s="6" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="H58" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K40"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.83203125" style="7" customWidth="1"/>
-    <col min="13" max="31" width="10.83203125" style="7" customWidth="1"/>
-    <col min="32" max="16384" width="10.83203125" style="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="7" width="8.1640625"/>
+    <col bestFit="1" customWidth="1" max="4" min="2" style="7" width="12.1640625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="7" width="8.1640625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="7" width="12.83203125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="28.1640625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="7" width="12.83203125"/>
+    <col customWidth="1" max="9" min="9" style="7" width="30.6640625"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="7" width="8.1640625"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
+    <col customWidth="1" max="12" min="12" style="7" width="31.83203125"/>
+    <col customWidth="1" max="31" min="13" style="7" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="32" style="7" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1822,13 +1813,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -1843,88 +1834,88 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="D2" s="3" t="n"/>
       <c r="E2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="D3" s="3" t="n"/>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="D5" s="3" t="n"/>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
       <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
@@ -1938,7 +1929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
@@ -1949,14 +1940,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="H8" s="7" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K8"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -28,13 +28,29 @@
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
   <si>
     <t>Run</t>
   </si>
@@ -90,7 +106,7 @@
     <t>pass</t>
   </si>
   <si>
-    <t>2017-10-09 11:53:07</t>
+    <t>2017-10-09 20:45:11</t>
   </si>
   <si>
     <t xml:space="preserve">   </t>
@@ -126,7 +142,7 @@
     <t>Search</t>
   </si>
   <si>
-    <t>2017-10-09 11:53:09</t>
+    <t>2017-10-09 20:45:16</t>
   </si>
   <si>
     <t>Search box</t>
@@ -168,7 +184,7 @@
     <t>Search(Load the saved)</t>
   </si>
   <si>
-    <t>2017-10-09 11:53:12</t>
+    <t>2017-10-09 20:45:19</t>
   </si>
   <si>
     <t>(Load the saved)</t>
@@ -321,22 +337,16 @@
     <t>get</t>
   </si>
   <si>
-    <t>https://github.com/timeline.json</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>2017-10-03 23:39:33</t>
-  </si>
-  <si>
-    <t>[Line 0] HTTPSConnectionPool(host='github.com', port=443): Read timed out. (read timeout=1.0)</t>
+    <t>https://api.github.com</t>
+  </si>
+  <si>
+    <t>2017-10-09 20:45:22</t>
   </si>
   <si>
     <t>in.text</t>
   </si>
   <si>
-    <t>message</t>
+    <t>emojis</t>
   </si>
   <si>
     <t>AT.HTTP.Get.02</t>
@@ -384,13 +394,13 @@
     <t>&lt;headers&gt;</t>
   </si>
   <si>
-    <t>2017-10-02 19:46:36</t>
+    <t>2017-10-09 20:45:23</t>
   </si>
   <si>
     <t>user-agent</t>
   </si>
   <si>
-    <t>my-app/0.0.1</t>
+    <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_12_6) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/61.0.3163.100 Safari/537.36</t>
   </si>
   <si>
     <t>&lt;/headers&gt;</t>
@@ -399,22 +409,37 @@
     <t>&lt;params&gt;</t>
   </si>
   <si>
-    <t>key1</t>
-  </si>
-  <si>
-    <t>value1</t>
-  </si>
-  <si>
-    <t>key2</t>
-  </si>
-  <si>
-    <t>value2</t>
+    <t>name</t>
   </si>
   <si>
     <t>&lt;/params&gt;</t>
   </si>
   <si>
-    <t>zzz</t>
+    <t>https://www.v2ex.com/api/nodes/show.json</t>
+  </si>
+  <si>
+    <t>log.text</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>AT.HTTP.Get.04</t>
+  </si>
+  <si>
+    <t>2017-10-09 20:45:25</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>https://api.github.com/repos/txels/ddt/issues</t>
+  </si>
+  <si>
+    <t>Add zeros</t>
   </si>
   <si>
     <t>AT.MYSQL.Select.01</t>
@@ -445,6 +470,30 @@
   </si>
   <si>
     <t>fetchmany.5</t>
+  </si>
+  <si>
+    <t>AT.Locust.01</t>
+  </si>
+  <si>
+    <t>locust</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>2017-10-09 20:45:26</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>LocustExample.py</t>
   </si>
   <si>
     <t>Locate/Encapsulate</t>
@@ -561,7 +610,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -581,6 +630,9 @@
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -859,10 +911,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView showRuler="0" tabSelected="1" topLeftCell="A10" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView showRuler="0" tabSelected="1" topLeftCell="A54" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
@@ -875,12 +927,12 @@
     <col customWidth="1" max="6" min="6" style="7" width="11"/>
     <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="38.1640625"/>
     <col bestFit="1" customWidth="1" max="8" min="8" style="7" width="16.6640625"/>
-    <col customWidth="1" max="9" min="9" style="7" width="31.6640625"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="7" width="40"/>
     <col customWidth="1" max="10" min="10" style="7" width="8.33203125"/>
     <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
     <col bestFit="1" customWidth="1" max="12" min="12" style="7" width="80.1640625"/>
-    <col customWidth="1" max="32" min="13" style="7" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="33" style="7" width="10.83203125"/>
+    <col customWidth="1" max="34" min="13" style="7" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="35" style="7" width="10.83203125"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1" spans="1:12">
@@ -1100,7 +1152,7 @@
       <c r="K10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="3" t="s"/>
+      <c r="L10" s="3" t="n"/>
     </row>
     <row r="11" spans="1:12">
       <c r="D11" s="7" t="s">
@@ -1468,7 +1520,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>91</v>
@@ -1489,21 +1541,19 @@
         <v>95</v>
       </c>
       <c r="J32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="L32" s="3" t="n"/>
     </row>
     <row r="33" spans="1:12">
       <c r="H33" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1511,7 +1561,7 @@
         <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>92</v>
@@ -1521,10 +1571,10 @@
         <v>93</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H34" s="3" t="n"/>
       <c r="I34" s="3" t="n"/>
@@ -1532,21 +1582,21 @@
         <v>17</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L34" s="3" t="n"/>
     </row>
     <row r="35" spans="1:12">
       <c r="F35" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="F36" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G36" s="7" t="n">
         <v>2</v>
@@ -1557,7 +1607,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="H37" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I37" s="7" t="n">
         <v>200</v>
@@ -1565,7 +1615,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="H38" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I38" s="7" t="b">
         <v>1</v>
@@ -1573,26 +1623,26 @@
     </row>
     <row r="39" spans="1:12">
       <c r="H39" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="H40" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>92</v>
@@ -1602,7 +1652,7 @@
         <v>93</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G41" s="2" t="n"/>
       <c r="H41" s="3" t="n"/>
@@ -1611,154 +1661,287 @@
         <v>17</v>
       </c>
       <c r="K41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L41" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="18" r="42" spans="1:12">
+      <c r="F42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="L41" s="3" t="n"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="F42" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="F43" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="F44" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="F45" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="F46" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="F47" s="7" t="s">
-        <v>125</v>
+        <v>105</v>
+      </c>
+      <c r="G47" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="F48" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G48" s="7" t="n">
-        <v>5</v>
-      </c>
       <c r="H48" s="4" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row customHeight="1" ht="19" r="49" spans="1:12">
       <c r="H49" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="H50" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I50" s="7" t="s">
+      <c r="A50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="3" t="n"/>
+      <c r="E50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G50" s="2" t="n"/>
+      <c r="H50" s="3" t="n"/>
+      <c r="I50" s="3" t="n"/>
+      <c r="J50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L50" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="18" r="51" spans="1:12">
+      <c r="F51" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="F52" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="F53" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="F54" s="7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="2" t="s">
+      <c r="G54" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="F55" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="F56" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19" r="57" spans="1:12">
+      <c r="H57" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" s="3" t="n"/>
-      <c r="E51" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" s="3" t="n"/>
-      <c r="G51" s="3" t="n"/>
-      <c r="H51" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="D58" s="3" t="n"/>
+      <c r="E58" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" s="3" t="n"/>
+      <c r="G58" s="3" t="n"/>
+      <c r="H58" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K51" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L51" s="3" t="n"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="H52" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="H53" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I53" s="7" t="s">
+      <c r="K58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L58" s="3" t="n"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="H59" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="H60" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="H61" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="H62" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="H63" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="H64" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="H65" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="H54" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="H55" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="H56" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="H57" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="H58" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>135</v>
+      <c r="D66" s="3" t="n"/>
+      <c r="E66" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G66" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" s="3" t="n"/>
+      <c r="I66" s="2" t="n"/>
+      <c r="J66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L66" s="3" t="s"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="F67" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G67" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="F68" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G68" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="F69" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1792,8 +1975,8 @@
     <col bestFit="1" customWidth="1" max="10" min="10" style="7" width="8.1640625"/>
     <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
     <col customWidth="1" max="12" min="12" style="7" width="31.83203125"/>
-    <col customWidth="1" max="31" min="13" style="7" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="32" style="7" width="10.83203125"/>
+    <col customWidth="1" max="33" min="13" style="7" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="34" style="7" width="10.83203125"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1" spans="1:12">
@@ -1813,13 +1996,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -1839,14 +2022,14 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D2" s="3" t="n"/>
       <c r="E2" s="2" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F2" s="3" t="n"/>
       <c r="G2" s="3" t="n"/>
@@ -1863,10 +2046,10 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D3" s="3" t="n"/>
       <c r="E3" s="2" t="s">
@@ -1894,10 +2077,10 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="2" t="s">

--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -44,6 +44,80 @@
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -106,7 +180,7 @@
     <t>pass</t>
   </si>
   <si>
-    <t>2017-10-09 20:45:11</t>
+    <t>2017-10-09 22:02:09</t>
   </si>
   <si>
     <t xml:space="preserve">   </t>
@@ -142,7 +216,7 @@
     <t>Search</t>
   </si>
   <si>
-    <t>2017-10-09 20:45:16</t>
+    <t>2017-10-09 22:02:12</t>
   </si>
   <si>
     <t>Search box</t>
@@ -184,7 +258,7 @@
     <t>Search(Load the saved)</t>
   </si>
   <si>
-    <t>2017-10-09 20:45:19</t>
+    <t>2017-10-09 22:02:14</t>
   </si>
   <si>
     <t>(Load the saved)</t>
@@ -340,7 +414,7 @@
     <t>https://api.github.com</t>
   </si>
   <si>
-    <t>2017-10-09 20:45:22</t>
+    <t>2017-10-09 22:02:18</t>
   </si>
   <si>
     <t>in.text</t>
@@ -394,7 +468,7 @@
     <t>&lt;headers&gt;</t>
   </si>
   <si>
-    <t>2017-10-09 20:45:23</t>
+    <t>2017-10-09 22:02:19</t>
   </si>
   <si>
     <t>user-agent</t>
@@ -427,7 +501,7 @@
     <t>AT.HTTP.Get.04</t>
   </si>
   <si>
-    <t>2017-10-09 20:45:25</t>
+    <t>2017-10-09 22:02:20</t>
   </si>
   <si>
     <t>state</t>
@@ -481,7 +555,7 @@
     <t>client</t>
   </si>
   <si>
-    <t>2017-10-09 20:45:26</t>
+    <t>2017-10-09 22:02:22</t>
   </si>
   <si>
     <t>rate</t>

--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -1,130 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jia/Dropbox/v2test/TestCases/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="8280" yWindow="460" windowWidth="28800" windowHeight="17620"/>
   </bookViews>
   <sheets>
-    <sheet name="Tests1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Tests2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Tests1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tests2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$40</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests1!$A$1:$K$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tests2!$A$1:$K$8</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="157">
   <si>
     <t>Run</t>
   </si>
@@ -474,9 +382,6 @@
     <t>user-agent</t>
   </si>
   <si>
-    <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_12_6) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/61.0.3163.100 Safari/537.36</t>
-  </si>
-  <si>
     <t>&lt;/headers&gt;</t>
   </si>
   <si>
@@ -489,174 +394,192 @@
     <t>&lt;/params&gt;</t>
   </si>
   <si>
+    <t>log.text</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>AT.HTTP.Get.04</t>
+  </si>
+  <si>
+    <t>2017-10-09 22:02:20</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Add zeros</t>
+  </si>
+  <si>
+    <t>AT.MYSQL.Select.01</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>fetchone</t>
+  </si>
+  <si>
+    <t>SELECT name FROM help_keyword;</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>fetchone.name</t>
+  </si>
+  <si>
+    <t>fetchall</t>
+  </si>
+  <si>
+    <t>AES_ENCRYPT</t>
+  </si>
+  <si>
+    <t>fetchmany.5</t>
+  </si>
+  <si>
+    <t>AT.Locust.01</t>
+  </si>
+  <si>
+    <t>locust</t>
+  </si>
+  <si>
+    <t>2017-10-09 22:02:22</t>
+  </si>
+  <si>
+    <t>LocustExample.py</t>
+  </si>
+  <si>
+    <t>Locate/Encapsulate</t>
+  </si>
+  <si>
+    <t>Action/Check</t>
+  </si>
+  <si>
+    <t>AT.Login.11</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>uI</t>
+  </si>
+  <si>
+    <t>AT.Login.12</t>
+  </si>
+  <si>
+    <t>AT.Login.13</t>
+  </si>
+  <si>
+    <t>CLIENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB Test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load Test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (MSIE 10.0; Windows NT 6.1; Trident/5.0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.v2ex.com/api/nodes/show.json</t>
-  </si>
-  <si>
-    <t>log.text</t>
-  </si>
-  <si>
-    <t>Django</t>
-  </si>
-  <si>
-    <t>AT.HTTP.Get.04</t>
-  </si>
-  <si>
-    <t>2017-10-09 22:02:20</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://api.github.com/repos/txels/ddt/issues</t>
-  </si>
-  <si>
-    <t>Add zeros</t>
-  </si>
-  <si>
-    <t>AT.MYSQL.Select.01</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>mysql</t>
-  </si>
-  <si>
-    <t>fetchone</t>
-  </si>
-  <si>
-    <t>SELECT name FROM help_keyword;</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>fetchone.name</t>
-  </si>
-  <si>
-    <t>fetchall</t>
-  </si>
-  <si>
-    <t>AES_ENCRYPT</t>
-  </si>
-  <si>
-    <t>fetchmany.5</t>
-  </si>
-  <si>
-    <t>AT.Locust.01</t>
-  </si>
-  <si>
-    <t>locust</t>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>2017-10-09 22:02:22</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>LocustExample.py</t>
-  </si>
-  <si>
-    <t>Locate/Encapsulate</t>
-  </si>
-  <si>
-    <t>Action/Check</t>
-  </si>
-  <si>
-    <t>AT.Login.11</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>uI</t>
-  </si>
-  <si>
-    <t>AT.Login.12</t>
-  </si>
-  <si>
-    <t>AT.Login.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_12_6) AppleWebKit/604.1.38 (KHTML, like Gecko) Version/11.0 Safari/604.1.38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="12"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="11"/>
-      <sz val="12"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-      <family val="4"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.7999816888943144"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,41 +603,47 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="已访问的超链接" xfId="2"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -980,36 +909,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView showRuler="0" tabSelected="1" topLeftCell="A54" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="7" width="6.5"/>
-    <col customWidth="1" max="2" min="2" style="7" width="18.1640625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="7" width="21.33203125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="18"/>
-    <col customWidth="1" max="5" min="5" style="7" width="9"/>
-    <col customWidth="1" max="6" min="6" style="7" width="11"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="38.1640625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="7" width="16.6640625"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="7" width="40"/>
-    <col customWidth="1" max="10" min="10" style="7" width="8.33203125"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="7" width="80.1640625"/>
-    <col customWidth="1" max="34" min="13" style="7" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="35" style="7" width="10.83203125"/>
+    <col min="1" max="1" width="6.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11" style="7" customWidth="1"/>
+    <col min="7" max="7" width="38.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="35" width="10.83203125" style="7" customWidth="1"/>
+    <col min="36" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1063,21 +988,21 @@
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="n"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="3" t="n"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1093,8 +1018,8 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1107,14 +1032,14 @@
       <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3" t="n"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
@@ -1122,7 +1047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1138,8 +1063,8 @@
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1152,9 +1077,9 @@
       <c r="K6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="3" t="n"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D7" s="7" t="s">
         <v>31</v>
       </c>
@@ -1171,7 +1096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" s="7" t="s">
         <v>36</v>
       </c>
@@ -1182,7 +1107,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="7" t="s">
         <v>39</v>
       </c>
@@ -1196,7 +1121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1137,8 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1226,9 +1151,9 @@
       <c r="K10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="3" t="n"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D11" s="7" t="s">
         <v>45</v>
       </c>
@@ -1245,15 +1170,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="7" t="n">
+      <c r="I12" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
@@ -1264,7 +1189,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -1280,8 +1205,8 @@
       <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1294,9 +1219,9 @@
       <c r="K14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="3" t="n"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15" s="7" t="s">
         <v>54</v>
       </c>
@@ -1313,7 +1238,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="7" t="s">
         <v>58</v>
       </c>
@@ -1330,7 +1255,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D17" s="7" t="s">
         <v>61</v>
       </c>
@@ -1343,11 +1268,11 @@
       <c r="H17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="7" t="n">
+      <c r="I17" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D18" s="7" t="s">
         <v>41</v>
       </c>
@@ -1355,7 +1280,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
@@ -1371,8 +1296,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="2" t="s">
         <v>16</v>
       </c>
@@ -1385,9 +1310,9 @@
       <c r="K19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="3" t="n"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D20" s="7" t="s">
         <v>68</v>
       </c>
@@ -1400,11 +1325,11 @@
       <c r="H20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="7" t="n">
+      <c r="I20" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H21" s="7" t="s">
         <v>34</v>
       </c>
@@ -1412,7 +1337,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D22" s="7" t="s">
         <v>58</v>
       </c>
@@ -1429,7 +1354,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D23" s="7" t="s">
         <v>70</v>
       </c>
@@ -1440,7 +1365,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1450,12 +1375,12 @@
       <c r="C24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="3" t="n"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="3" t="n"/>
-      <c r="G24" s="3" t="n"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="2" t="s">
         <v>76</v>
       </c>
@@ -1468,9 +1393,9 @@
       <c r="K24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L24" s="3" t="n"/>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H25" s="7" t="s">
         <v>79</v>
       </c>
@@ -1478,7 +1403,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -1488,12 +1413,12 @@
       <c r="C26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="3" t="n"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="3" t="n"/>
-      <c r="G26" s="3" t="n"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="2" t="s">
         <v>83</v>
       </c>
@@ -1506,9 +1431,9 @@
       <c r="K26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="3" t="n"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H27" s="7" t="s">
         <v>79</v>
       </c>
@@ -1516,7 +1441,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
@@ -1526,12 +1451,12 @@
       <c r="C28" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="3" t="n"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="3" t="n"/>
-      <c r="G28" s="3" t="n"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="2" t="s">
         <v>87</v>
       </c>
@@ -1544,9 +1469,9 @@
       <c r="K28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L28" s="3" t="n"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H29" s="7" t="s">
         <v>79</v>
       </c>
@@ -1554,7 +1479,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>48</v>
       </c>
@@ -1564,12 +1489,12 @@
       <c r="C30" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="3" t="n"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="3" t="n"/>
-      <c r="G30" s="3" t="n"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="2" t="s">
         <v>90</v>
       </c>
@@ -1582,9 +1507,9 @@
       <c r="K30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L30" s="3" t="n"/>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H31" s="7" t="s">
         <v>79</v>
       </c>
@@ -1592,7 +1517,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -1602,12 +1527,12 @@
       <c r="C32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="3" t="n"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="3" t="n"/>
-      <c r="G32" s="3" t="n"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="2" t="s">
         <v>94</v>
       </c>
@@ -1620,9 +1545,9 @@
       <c r="K32" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L32" s="3" t="n"/>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H33" s="7" t="s">
         <v>97</v>
       </c>
@@ -1630,7 +1555,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>48</v>
       </c>
@@ -1640,7 +1565,7 @@
       <c r="C34" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="3" t="n"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="2" t="s">
         <v>93</v>
       </c>
@@ -1650,17 +1575,17 @@
       <c r="G34" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H34" s="3" t="n"/>
-      <c r="I34" s="3" t="n"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
       <c r="J34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L34" s="3" t="n"/>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F35" s="7" t="s">
         <v>103</v>
       </c>
@@ -1668,26 +1593,26 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F36" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G36" s="7" t="n">
+      <c r="G36" s="7">
         <v>2</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H37" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I37" s="7" t="n">
+      <c r="I37" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H38" s="7" t="s">
         <v>107</v>
       </c>
@@ -1695,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H39" s="7" t="s">
         <v>108</v>
       </c>
@@ -1703,7 +1628,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H40" s="7" t="s">
         <v>110</v>
       </c>
@@ -1711,7 +1636,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>11</v>
       </c>
@@ -1721,184 +1646,184 @@
       <c r="C41" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="3" t="n"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="2" t="n"/>
-      <c r="H41" s="3" t="n"/>
-      <c r="I41" s="3" t="n"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
       <c r="J41" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="L41" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="42" spans="1:12">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F42" s="7" t="s">
         <v>115</v>
       </c>
       <c r="G42" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F43" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
-      <c r="F43" s="7" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F44" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="F44" s="7" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F45" s="7" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="F45" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F46" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F47" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G47" s="7" t="n">
+      <c r="G47" s="7">
         <v>5</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>94</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H48" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="19" r="49" spans="1:12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H49" s="7" t="s">
         <v>97</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="3" t="n"/>
+      <c r="D50" s="3"/>
       <c r="E50" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G50" s="2" t="n"/>
-      <c r="H50" s="3" t="n"/>
-      <c r="I50" s="3" t="n"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
       <c r="J50" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L50" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="51" spans="1:12">
+        <v>123</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F51" s="7" t="s">
         <v>115</v>
       </c>
       <c r="G51" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F52" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
-      <c r="F52" s="7" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F53" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
-      <c r="F53" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F54" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F55" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F56" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G56" s="7" t="n">
+      <c r="G56" s="7">
         <v>5</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>94</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="19" r="57" spans="1:12">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H57" s="7" t="s">
         <v>97</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="3" t="n"/>
-      <c r="E58" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F58" s="3" t="n"/>
-      <c r="G58" s="3" t="n"/>
-      <c r="H58" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>17</v>
@@ -1906,107 +1831,107 @@
       <c r="K58" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L58" s="3" t="n"/>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H59" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H60" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H61" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H62" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H63" s="7" t="s">
         <v>79</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H64" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H65" s="7" t="s">
         <v>79</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D66" s="3" t="n"/>
+        <v>152</v>
+      </c>
+      <c r="D66" s="3"/>
       <c r="E66" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G66" s="3" t="n">
+        <v>147</v>
+      </c>
+      <c r="G66" s="3">
         <v>2</v>
       </c>
-      <c r="H66" s="3" t="n"/>
-      <c r="I66" s="2" t="n"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="2"/>
       <c r="J66" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="L66" s="3" t="s"/>
-    </row>
-    <row r="67" spans="1:12">
+        <v>138</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F67" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G67" s="7" t="n">
+        <v>148</v>
+      </c>
+      <c r="G67" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F68" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G68" s="7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>149</v>
+      </c>
+      <c r="G68" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F69" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>95</v>
@@ -2015,45 +1940,40 @@
         <v>90</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K40"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="7" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="4" min="2" style="7" width="12.1640625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="7" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="7" width="12.83203125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="28.1640625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="7" width="12.83203125"/>
-    <col customWidth="1" max="9" min="9" style="7" width="30.6640625"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="7" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
-    <col customWidth="1" max="12" min="12" style="7" width="31.83203125"/>
-    <col customWidth="1" max="33" min="13" style="7" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="34" style="7" width="10.83203125"/>
+    <col min="1" max="1" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.83203125" style="7" customWidth="1"/>
+    <col min="13" max="34" width="10.83203125" style="7" customWidth="1"/>
+    <col min="35" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2070,13 +1990,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2091,88 +2011,88 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="3" t="n"/>
+        <v>143</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
+        <v>144</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="3" t="n"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="3" t="n"/>
+        <v>143</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="n"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="3" t="n"/>
+        <v>143</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="n"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="3" t="n"/>
-      <c r="K5" s="3" t="n"/>
-      <c r="L5" s="3" t="n"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
@@ -2186,7 +2106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
@@ -2197,13 +2117,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H8" s="7" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K8"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="158">
   <si>
     <t>Run</t>
   </si>
@@ -512,6 +512,10 @@
   </si>
   <si>
     <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_12_6) AppleWebKit/604.1.38 (KHTML, like Gecko) Version/11.0 Safari/604.1.38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -912,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A43" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A33" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1724,7 +1728,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>122</v>
@@ -1885,7 +1889,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>136</v>

--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="159">
   <si>
     <t>Run</t>
   </si>
@@ -512,6 +512,10 @@
   </si>
   <si>
     <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_12_6) AppleWebKit/604.1.38 (KHTML, like Gecko) Version/11.0 Safari/604.1.38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -916,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A33" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1523,7 +1527,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>91</v>

--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -1,38 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jia/Dropbox/v2test/TestCases/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="460" windowWidth="28800" windowHeight="17620"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tests1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tests2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tests1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tests2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests1!$A$1:$K$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
   <si>
     <t>Run</t>
   </si>
@@ -88,7 +94,7 @@
     <t>pass</t>
   </si>
   <si>
-    <t>2017-10-09 22:02:09</t>
+    <t>2017-10-15 23:44:25</t>
   </si>
   <si>
     <t xml:space="preserve">   </t>
@@ -124,7 +130,7 @@
     <t>Search</t>
   </si>
   <si>
-    <t>2017-10-09 22:02:12</t>
+    <t>2017-10-15 23:44:28</t>
   </si>
   <si>
     <t>Search box</t>
@@ -160,13 +166,16 @@
     <t>click</t>
   </si>
   <si>
+    <t>find</t>
+  </si>
+  <si>
     <t>AT.UI.Search.02</t>
   </si>
   <si>
     <t>Search(Load the saved)</t>
   </si>
   <si>
-    <t>2017-10-09 22:02:14</t>
+    <t>2017-10-15 23:44:30</t>
   </si>
   <si>
     <t>(Load the saved)</t>
@@ -382,6 +391,9 @@
     <t>user-agent</t>
   </si>
   <si>
+    <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_12_6) AppleWebKit/604.1.38 (KHTML, like Gecko) Version/11.0 Safari/604.1.38</t>
+  </si>
+  <si>
     <t>&lt;/headers&gt;</t>
   </si>
   <si>
@@ -394,6 +406,9 @@
     <t>&lt;/params&gt;</t>
   </si>
   <si>
+    <t>https://www.v2ex.com/api/nodes/show.json</t>
+  </si>
+  <si>
     <t>log.text</t>
   </si>
   <si>
@@ -403,7 +418,10 @@
     <t>AT.HTTP.Get.04</t>
   </si>
   <si>
-    <t>2017-10-09 22:02:20</t>
+    <t>2017-10-15 23:44:34</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (MSIE 10.0; Windows NT 6.1; Trident/5.0)</t>
   </si>
   <si>
     <t>state</t>
@@ -412,12 +430,21 @@
     <t>closed</t>
   </si>
   <si>
+    <t>https://api.github.com/repos/txels/ddt/issues</t>
+  </si>
+  <si>
+    <t>equal.json.0.state</t>
+  </si>
+  <si>
     <t>Add zeros</t>
   </si>
   <si>
     <t>AT.MYSQL.Select.01</t>
   </si>
   <si>
+    <t>DB Test</t>
+  </si>
+  <si>
     <t>mysql</t>
   </si>
   <si>
@@ -445,12 +472,27 @@
     <t>AT.Locust.01</t>
   </si>
   <si>
+    <t>Load Test</t>
+  </si>
+  <si>
     <t>locust</t>
   </si>
   <si>
+    <t>CLIENT</t>
+  </si>
+  <si>
     <t>2017-10-09 22:02:22</t>
   </si>
   <si>
+    <t>RATE</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>HOST</t>
+  </si>
+  <si>
     <t>LocustExample.py</t>
   </si>
   <si>
@@ -473,121 +515,74 @@
   </si>
   <si>
     <t>AT.Login.13</t>
-  </si>
-  <si>
-    <t>CLIENT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB Test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Load Test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mozilla/5.0 (MSIE 10.0; Windows NT 6.1; Trident/5.0)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.v2ex.com/api/nodes/show.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://api.github.com/repos/txels/ddt/issues</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_12_6) AppleWebKit/604.1.38 (KHTML, like Gecko) Version/11.0 Safari/604.1.38</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="10"/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="11"/>
       <sz val="12"/>
-      <color theme="11"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="4"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,47 +606,41 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="已访问的超链接" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -917,32 +906,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showRuler="0" tabSelected="1" topLeftCell="A47" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11" style="7" customWidth="1"/>
-    <col min="7" max="7" width="38.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="35" width="10.83203125" style="7" customWidth="1"/>
-    <col min="36" max="16384" width="10.83203125" style="7"/>
+    <col customWidth="1" max="1" min="1" style="7" width="6.5"/>
+    <col customWidth="1" max="2" min="2" style="7" width="18.1640625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="7" width="21.33203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="18"/>
+    <col customWidth="1" max="5" min="5" style="7" width="9"/>
+    <col customWidth="1" max="6" min="6" style="7" width="11"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="38.1640625"/>
+    <col customWidth="1" max="8" min="8" style="7" width="19"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="7" width="40"/>
+    <col customWidth="1" max="10" min="10" style="7" width="8.33203125"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="7" width="80.1640625"/>
+    <col customWidth="1" max="35" min="13" style="7" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="36" style="7" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -980,7 +973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -996,21 +989,21 @@
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="n"/>
       <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1026,8 +1019,8 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1040,14 +1033,14 @@
       <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L3" s="3" t="n"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
@@ -1055,7 +1048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1071,8 +1064,8 @@
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1085,9 +1078,9 @@
       <c r="K6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L6" s="3" t="n"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="D7" s="7" t="s">
         <v>31</v>
       </c>
@@ -1104,7 +1097,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="D8" s="7" t="s">
         <v>36</v>
       </c>
@@ -1115,7 +1108,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="D9" s="7" t="s">
         <v>39</v>
       </c>
@@ -1129,859 +1122,891 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:12">
+      <c r="F10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2" t="s">
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
+      <c r="H11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D11" s="7" t="s">
+      <c r="K11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="3" t="n"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="D12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="F12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="7">
+    <row r="13" spans="1:12">
+      <c r="H13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F13" s="7" t="s">
+    <row r="14" spans="1:12">
+      <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2" t="s">
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="7" t="s">
+      <c r="K15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="L15" s="3" t="n"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="D16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I16" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="D17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D17" s="7" t="s">
+      <c r="H17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="7" t="s">
+    </row>
+    <row r="18" spans="1:12">
+      <c r="D18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="F18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="7">
+      <c r="H18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D18" s="7" t="s">
+    <row r="19" spans="1:12">
+      <c r="D19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L20" s="3" t="n"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="D21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" s="7">
+      <c r="I21" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>59</v>
-      </c>
+    <row r="22" spans="1:12">
       <c r="H22" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I22" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="D23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D23" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="D24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="I24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="2" t="s">
+      <c r="D25" s="3" t="n"/>
+      <c r="E25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="F25" s="3" t="n"/>
+      <c r="G25" s="3" t="n"/>
+      <c r="H25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="I25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H25" s="7" t="s">
+      <c r="K25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="L25" s="3" t="n"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="H26" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="I26" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="D27" s="3" t="n"/>
+      <c r="E27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="3" t="n"/>
+      <c r="G27" s="3" t="n"/>
+      <c r="H27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="I27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H27" s="7" t="s">
+      <c r="K27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="L27" s="3" t="n"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="H28" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="I28" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
+      <c r="H29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L29" s="3" t="n"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="H30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
+      <c r="H31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H29" s="7" t="s">
+      <c r="K31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="L31" s="3" t="n"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="H32" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J30" s="3" t="s">
+      <c r="I32" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
+      <c r="H33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H31" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2" t="s">
+      <c r="K33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L33" s="3" t="n"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="H34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="2" t="s">
+      <c r="D35" s="3" t="n"/>
+      <c r="E35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="F35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" s="3" t="n"/>
+      <c r="I35" s="3" t="n"/>
+      <c r="J35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L35" s="3" t="n"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="F36" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="F37" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H33" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F35" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F36" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" s="7">
-        <v>2</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H37" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I37" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:12">
       <c r="H38" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I38" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I38" s="7" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="H39" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="H40" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H40" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="I40" s="7" t="s">
+    </row>
+    <row r="41" spans="1:12">
+      <c r="H41" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="I41" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="2" t="s">
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3" t="s">
+      <c r="D42" s="3" t="n"/>
+      <c r="E42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="2" t="n"/>
+      <c r="H42" s="3" t="n"/>
+      <c r="I42" s="3" t="n"/>
+      <c r="J42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F42" s="7" t="s">
+      <c r="K42" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="18" r="43" spans="1:12">
       <c r="F43" s="7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G43" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="F44" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="F45" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="F46" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="F47" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" s="7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="F48" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="H49" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19" r="50" spans="1:12">
+      <c r="H50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="3" t="n"/>
+      <c r="E51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I47" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H48" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H49" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3" t="s">
+      <c r="F51" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G51" s="2" t="n"/>
+      <c r="H51" s="3" t="n"/>
+      <c r="I51" s="3" t="n"/>
+      <c r="J51" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F51" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K51" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L51" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="18" r="52" spans="1:12">
       <c r="F52" s="7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G52" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="F53" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="F54" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="F55" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="F56" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G56" s="7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="F57" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G57" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H57" s="7" t="s">
-        <v>97</v>
+      <c r="H57" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="H58" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I58" s="7" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="H59" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19" r="60" spans="1:12">
+      <c r="H60" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="3" t="n"/>
+      <c r="E61" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" s="3" t="n"/>
+      <c r="G61" s="3" t="n"/>
+      <c r="H61" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L61" s="3" t="n"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="H62" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="H63" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="H64" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="H65" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="H66" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="H67" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="H68" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="3" t="n"/>
+      <c r="E69" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" s="3" t="n"/>
+      <c r="I69" s="2" t="n"/>
+      <c r="J69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L69" s="3" t="n"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="F70" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G70" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="F71" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G71" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="F72" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I72" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H59" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H60" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H61" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H62" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H63" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H64" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H65" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2</v>
-      </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F67" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G67" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F68" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G68" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F69" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>139</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K40"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <autoFilter ref="A1:K41"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.83203125" style="7" customWidth="1"/>
-    <col min="13" max="34" width="10.83203125" style="7" customWidth="1"/>
-    <col min="35" max="16384" width="10.83203125" style="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="7" width="8.1640625"/>
+    <col bestFit="1" customWidth="1" max="4" min="2" style="7" width="12.1640625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="7" width="8.1640625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="7" width="12.83203125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="28.1640625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="7" width="12.83203125"/>
+    <col customWidth="1" max="9" min="9" style="7" width="30.6640625"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="7" width="8.1640625"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
+    <col customWidth="1" max="12" min="12" style="7" width="31.83203125"/>
+    <col customWidth="1" max="34" min="13" style="7" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="35" style="7" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1998,13 +2023,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2019,88 +2044,88 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="D2" s="3" t="n"/>
       <c r="E2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="D3" s="3" t="n"/>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="D5" s="3" t="n"/>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
       <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
@@ -2114,7 +2139,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
@@ -2125,14 +2150,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="H8" s="7" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K8"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -1,44 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jia/Dropbox/v2test/TestCases/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17620"/>
   </bookViews>
   <sheets>
-    <sheet name="Tests1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Tests2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Tests1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tests2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests1!$A$1:$K$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tests2!$A$1:$K$8</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="160">
   <si>
     <t>Run</t>
   </si>
@@ -515,74 +509,77 @@
   </si>
   <si>
     <t>AT.Login.13</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="12"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="11"/>
-      <sz val="12"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-      <family val="4"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.7999816888943144"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,41 +603,47 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="已访问的超链接" xfId="2"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -906,36 +909,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView showRuler="0" tabSelected="1" topLeftCell="A47" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A34" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="7" width="6.5"/>
-    <col customWidth="1" max="2" min="2" style="7" width="18.1640625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="7" width="21.33203125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="18"/>
-    <col customWidth="1" max="5" min="5" style="7" width="9"/>
-    <col customWidth="1" max="6" min="6" style="7" width="11"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="38.1640625"/>
-    <col customWidth="1" max="8" min="8" style="7" width="19"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="7" width="40"/>
-    <col customWidth="1" max="10" min="10" style="7" width="8.33203125"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="7" width="80.1640625"/>
-    <col customWidth="1" max="35" min="13" style="7" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="36" style="7" width="10.83203125"/>
+    <col min="1" max="1" width="6.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11" style="7" customWidth="1"/>
+    <col min="7" max="7" width="38.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="7" customWidth="1"/>
+    <col min="9" max="9" width="40" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="36" width="10.83203125" style="7" customWidth="1"/>
+    <col min="37" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -973,7 +972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -989,21 +988,21 @@
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="n"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="3" t="n"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1019,8 +1018,8 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1033,14 +1032,14 @@
       <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3" t="n"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
@@ -1048,7 +1047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1064,8 +1063,8 @@
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1078,9 +1077,9 @@
       <c r="K6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="3" t="n"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D7" s="7" t="s">
         <v>31</v>
       </c>
@@ -1097,7 +1096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" s="7" t="s">
         <v>36</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="7" t="s">
         <v>39</v>
       </c>
@@ -1122,7 +1121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
@@ -1133,7 +1132,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1149,8 +1148,8 @@
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1163,9 +1162,9 @@
       <c r="K11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="3" t="n"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D12" s="7" t="s">
         <v>46</v>
       </c>
@@ -1182,15 +1181,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="7" t="n">
+      <c r="I13" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1201,7 +1200,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
@@ -1217,8 +1216,8 @@
       <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1231,9 +1230,9 @@
       <c r="K15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="3" t="n"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="7" t="s">
         <v>55</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D17" s="7" t="s">
         <v>59</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D18" s="7" t="s">
         <v>62</v>
       </c>
@@ -1280,11 +1279,11 @@
       <c r="H18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="7" t="n">
+      <c r="I18" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D19" s="7" t="s">
         <v>41</v>
       </c>
@@ -1292,7 +1291,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
@@ -1308,8 +1307,8 @@
       <c r="E20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="3" t="n"/>
-      <c r="G20" s="3" t="n"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="2" t="s">
         <v>16</v>
       </c>
@@ -1322,9 +1321,9 @@
       <c r="K20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L20" s="3" t="n"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D21" s="7" t="s">
         <v>69</v>
       </c>
@@ -1337,11 +1336,11 @@
       <c r="H21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="7" t="n">
+      <c r="I21" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H22" s="7" t="s">
         <v>34</v>
       </c>
@@ -1349,7 +1348,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D23" s="7" t="s">
         <v>59</v>
       </c>
@@ -1366,7 +1365,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D24" s="7" t="s">
         <v>71</v>
       </c>
@@ -1377,7 +1376,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
@@ -1387,12 +1386,12 @@
       <c r="C25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="3" t="n"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="3" t="n"/>
-      <c r="G25" s="3" t="n"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="2" t="s">
         <v>77</v>
       </c>
@@ -1405,9 +1404,9 @@
       <c r="K25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L25" s="3" t="n"/>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H26" s="7" t="s">
         <v>80</v>
       </c>
@@ -1415,7 +1414,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
@@ -1425,12 +1424,12 @@
       <c r="C27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="3" t="n"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="3" t="n"/>
-      <c r="G27" s="3" t="n"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="2" t="s">
         <v>84</v>
       </c>
@@ -1443,9 +1442,9 @@
       <c r="K27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L27" s="3" t="n"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H28" s="7" t="s">
         <v>80</v>
       </c>
@@ -1453,7 +1452,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
@@ -1463,12 +1462,12 @@
       <c r="C29" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="3" t="n"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="3" t="n"/>
-      <c r="G29" s="3" t="n"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="2" t="s">
         <v>88</v>
       </c>
@@ -1481,9 +1480,9 @@
       <c r="K29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L29" s="3" t="n"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H30" s="7" t="s">
         <v>80</v>
       </c>
@@ -1491,7 +1490,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
@@ -1501,12 +1500,12 @@
       <c r="C31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="3" t="n"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="3" t="n"/>
-      <c r="G31" s="3" t="n"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="2" t="s">
         <v>91</v>
       </c>
@@ -1519,9 +1518,9 @@
       <c r="K31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L31" s="3" t="n"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H32" s="7" t="s">
         <v>80</v>
       </c>
@@ -1529,7 +1528,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
@@ -1539,12 +1538,12 @@
       <c r="C33" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="3" t="n"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F33" s="3" t="n"/>
-      <c r="G33" s="3" t="n"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="2" t="s">
         <v>95</v>
       </c>
@@ -1557,9 +1556,9 @@
       <c r="K33" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L33" s="3" t="n"/>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H34" s="7" t="s">
         <v>98</v>
       </c>
@@ -1567,7 +1566,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>49</v>
       </c>
@@ -1577,7 +1576,7 @@
       <c r="C35" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="3" t="n"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="2" t="s">
         <v>94</v>
       </c>
@@ -1587,17 +1586,17 @@
       <c r="G35" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H35" s="3" t="n"/>
-      <c r="I35" s="3" t="n"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
       <c r="J35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L35" s="3" t="n"/>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F36" s="7" t="s">
         <v>104</v>
       </c>
@@ -1605,26 +1604,26 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F37" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G37" s="7" t="n">
+      <c r="G37" s="7">
         <v>2</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H38" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I38" s="7" t="n">
+      <c r="I38" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H39" s="7" t="s">
         <v>108</v>
       </c>
@@ -1632,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H40" s="7" t="s">
         <v>109</v>
       </c>
@@ -1640,7 +1639,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H41" s="7" t="s">
         <v>111</v>
       </c>
@@ -1648,7 +1647,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>49</v>
       </c>
@@ -1658,25 +1657,25 @@
       <c r="C42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="3" t="n"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="2" t="n"/>
-      <c r="H42" s="3" t="n"/>
-      <c r="I42" s="3" t="n"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
       <c r="J42" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L42" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="43" spans="1:12">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F43" s="7" t="s">
         <v>116</v>
       </c>
@@ -1684,17 +1683,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F44" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F45" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F46" s="7" t="s">
         <v>120</v>
       </c>
@@ -1702,16 +1701,16 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F47" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F48" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="7" t="n">
+      <c r="G48" s="7">
         <v>5</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -1721,12 +1720,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H49" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="50" spans="1:12">
+    <row r="50" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H50" s="7" t="s">
         <v>98</v>
       </c>
@@ -1734,9 +1733,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>125</v>
@@ -1744,25 +1743,25 @@
       <c r="C51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="3" t="n"/>
+      <c r="D51" s="3"/>
       <c r="E51" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G51" s="2" t="n"/>
-      <c r="H51" s="3" t="n"/>
-      <c r="I51" s="3" t="n"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
       <c r="J51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L51" s="3" t="s"/>
-    </row>
-    <row customHeight="1" ht="18" r="52" spans="1:12">
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F52" s="7" t="s">
         <v>116</v>
       </c>
@@ -1770,17 +1769,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F53" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F54" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F55" s="7" t="s">
         <v>128</v>
       </c>
@@ -1788,16 +1787,16 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F56" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F57" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G57" s="7" t="n">
+      <c r="G57" s="7">
         <v>5</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -1807,15 +1806,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H58" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I58" s="7" t="n">
+      <c r="I58" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H59" s="4" t="s">
         <v>131</v>
       </c>
@@ -1823,7 +1822,7 @@
         <v>129</v>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="60" spans="1:12">
+    <row r="60" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H60" s="7" t="s">
         <v>98</v>
       </c>
@@ -1831,7 +1830,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>49</v>
       </c>
@@ -1841,12 +1840,12 @@
       <c r="C61" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D61" s="3" t="n"/>
+      <c r="D61" s="3"/>
       <c r="E61" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F61" s="3" t="n"/>
-      <c r="G61" s="3" t="n"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
       <c r="H61" s="2" t="s">
         <v>136</v>
       </c>
@@ -1859,14 +1858,14 @@
       <c r="K61" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L61" s="3" t="n"/>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H62" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H63" s="7" t="s">
         <v>139</v>
       </c>
@@ -1874,12 +1873,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H64" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H65" s="7" t="s">
         <v>140</v>
       </c>
@@ -1887,7 +1886,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H66" s="7" t="s">
         <v>80</v>
       </c>
@@ -1895,7 +1894,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H67" s="6" t="s">
         <v>142</v>
       </c>
@@ -1903,7 +1902,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H68" s="7" t="s">
         <v>80</v>
       </c>
@@ -1911,7 +1910,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>49</v>
       </c>
@@ -1921,43 +1920,43 @@
       <c r="C69" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D69" s="3" t="n"/>
+      <c r="D69" s="3"/>
       <c r="E69" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G69" s="3" t="n">
+      <c r="G69" s="3">
         <v>2</v>
       </c>
-      <c r="H69" s="3" t="n"/>
-      <c r="I69" s="2" t="n"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="2"/>
       <c r="J69" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="L69" s="3" t="n"/>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F70" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G70" s="7" t="n">
+      <c r="G70" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F71" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G71" s="7" t="n">
+      <c r="G71" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F72" s="7" t="s">
         <v>150</v>
       </c>
@@ -1973,40 +1972,35 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K41"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="7" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="4" min="2" style="7" width="12.1640625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="7" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="7" width="12.83203125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="28.1640625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="7" width="12.83203125"/>
-    <col customWidth="1" max="9" min="9" style="7" width="30.6640625"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="7" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
-    <col customWidth="1" max="12" min="12" style="7" width="31.83203125"/>
-    <col customWidth="1" max="34" min="13" style="7" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="35" style="7" width="10.83203125"/>
+    <col min="1" max="1" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.83203125" style="7" customWidth="1"/>
+    <col min="13" max="35" width="10.83203125" style="7" customWidth="1"/>
+    <col min="36" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2044,7 +2038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
@@ -2054,21 +2048,21 @@
       <c r="C2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="3" t="n"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="3" t="n"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
@@ -2078,28 +2072,28 @@
       <c r="C3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="3" t="n"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="n"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -2109,23 +2103,23 @@
       <c r="C5" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="3" t="n"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="n"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="3" t="n"/>
-      <c r="K5" s="3" t="n"/>
-      <c r="L5" s="3" t="n"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
@@ -2139,7 +2133,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
@@ -2150,13 +2144,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H8" s="7" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K8"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="163">
   <si>
     <t>Run</t>
   </si>
@@ -385,9 +385,6 @@
     <t>user-agent</t>
   </si>
   <si>
-    <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_12_6) AppleWebKit/604.1.38 (KHTML, like Gecko) Version/11.0 Safari/604.1.38</t>
-  </si>
-  <si>
     <t>&lt;/headers&gt;</t>
   </si>
   <si>
@@ -415,9 +412,6 @@
     <t>2017-10-15 23:44:34</t>
   </si>
   <si>
-    <t>Mozilla/5.0 (MSIE 10.0; Windows NT 6.1; Trident/5.0)</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
@@ -509,6 +503,26 @@
   </si>
   <si>
     <t>AT.Login.13</t>
+  </si>
+  <si>
+    <t>"closed"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Mozilla/5.0 (MSIE 10.0; Windows NT 6.1; Trident/5.0)"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"python"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Mozilla/5.0 (Macintosh; Intel Mac OS X 10_12_6) AppleWebKit/604.1.38 (KHTML, like Gecko) Version/11.0 Safari/604.1.38"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>n</t>
@@ -912,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A34" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A28" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1649,7 +1663,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>113</v>
@@ -1680,30 +1694,30 @@
         <v>116</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F44" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F45" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F46" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F47" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -1717,12 +1731,12 @@
         <v>95</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H49" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -1730,15 +1744,15 @@
         <v>98</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>93</v>
@@ -1757,7 +1771,7 @@
         <v>17</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L51" s="3"/>
     </row>
@@ -1766,30 +1780,30 @@
         <v>116</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F53" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F54" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F55" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F56" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -1803,7 +1817,7 @@
         <v>95</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -1816,10 +1830,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H59" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -1827,7 +1841,7 @@
         <v>98</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -1835,22 +1849,22 @@
         <v>49</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>17</v>
@@ -1862,28 +1876,28 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H62" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H63" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H64" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H65" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -1891,15 +1905,15 @@
         <v>80</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H67" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -1907,7 +1921,7 @@
         <v>80</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -1915,17 +1929,17 @@
         <v>49</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G69" s="3">
         <v>2</v>
@@ -1936,13 +1950,13 @@
         <v>17</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L69" s="3"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F70" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G70" s="7">
         <v>2</v>
@@ -1950,7 +1964,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F71" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G71" s="7">
         <v>1</v>
@@ -1958,7 +1972,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F72" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>96</v>
@@ -1967,7 +1981,7 @@
         <v>91</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2017,13 +2031,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2043,14 +2057,14 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2067,10 +2081,10 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
@@ -2098,10 +2112,10 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">

--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -1,38 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jia/Dropbox/v2test/TestCases/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17620"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tests1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tests2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tests1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tests2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests1!$A$1:$K$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>Run</t>
   </si>
@@ -88,7 +164,7 @@
     <t>pass</t>
   </si>
   <si>
-    <t>2017-10-15 23:44:25</t>
+    <t>2017-10-21 23:57:09</t>
   </si>
   <si>
     <t xml:space="preserve">   </t>
@@ -124,7 +200,7 @@
     <t>Search</t>
   </si>
   <si>
-    <t>2017-10-15 23:44:28</t>
+    <t>2017-10-21 23:57:12</t>
   </si>
   <si>
     <t>Search box</t>
@@ -169,7 +245,7 @@
     <t>Search(Load the saved)</t>
   </si>
   <si>
-    <t>2017-10-15 23:44:30</t>
+    <t>2017-10-21 23:57:15</t>
   </si>
   <si>
     <t>(Load the saved)</t>
@@ -376,25 +452,28 @@
     <t>AT.HTTP.Get.03</t>
   </si>
   <si>
-    <t>&lt;headers&gt;</t>
-  </si>
-  <si>
-    <t>2017-10-09 22:02:19</t>
+    <t>headers{</t>
+  </si>
+  <si>
+    <t>2017-10-21 23:57:19</t>
   </si>
   <si>
     <t>user-agent</t>
   </si>
   <si>
-    <t>&lt;/headers&gt;</t>
-  </si>
-  <si>
-    <t>&lt;params&gt;</t>
+    <t>"Mozilla/5.0 (Macintosh; Intel Mac OS X 10_12_6) AppleWebKit/604.1.38 (KHTML, like Gecko) Version/11.0 Safari/604.1.38"</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>params{</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>&lt;/params&gt;</t>
+    <t>"python"</t>
   </si>
   <si>
     <t>https://www.v2ex.com/api/nodes/show.json</t>
@@ -412,18 +491,24 @@
     <t>2017-10-15 23:44:34</t>
   </si>
   <si>
+    <t>"Mozilla/5.0 (MSIE 10.0; Windows NT 6.1; Trident/5.0)"</t>
+  </si>
+  <si>
     <t>state</t>
   </si>
   <si>
+    <t>"closed"</t>
+  </si>
+  <si>
+    <t>https://api.github.com/repos/txels/ddt/issues</t>
+  </si>
+  <si>
+    <t>equal.json.0.state</t>
+  </si>
+  <si>
     <t>closed</t>
   </si>
   <si>
-    <t>https://api.github.com/repos/txels/ddt/issues</t>
-  </si>
-  <si>
-    <t>equal.json.0.state</t>
-  </si>
-  <si>
     <t>Add zeros</t>
   </si>
   <si>
@@ -503,97 +588,74 @@
   </si>
   <si>
     <t>AT.Login.13</t>
-  </si>
-  <si>
-    <t>"closed"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Mozilla/5.0 (MSIE 10.0; Windows NT 6.1; Trident/5.0)"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"python"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Mozilla/5.0 (Macintosh; Intel Mac OS X 10_12_6) AppleWebKit/604.1.38 (KHTML, like Gecko) Version/11.0 Safari/604.1.38"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="10"/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="11"/>
       <sz val="12"/>
-      <color theme="11"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="4"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,47 +679,41 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="已访问的超链接" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -923,32 +979,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A28" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView showRuler="0" tabSelected="1" topLeftCell="A34" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11" style="7" customWidth="1"/>
-    <col min="7" max="7" width="38.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="7" customWidth="1"/>
-    <col min="9" max="9" width="40" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="36" width="10.83203125" style="7" customWidth="1"/>
-    <col min="37" max="16384" width="10.83203125" style="7"/>
+    <col customWidth="1" max="1" min="1" style="7" width="6.5"/>
+    <col customWidth="1" max="2" min="2" style="7" width="18.1640625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="7" width="21.33203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="18"/>
+    <col customWidth="1" max="5" min="5" style="7" width="9"/>
+    <col customWidth="1" max="6" min="6" style="7" width="11"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="38.1640625"/>
+    <col customWidth="1" max="8" min="8" style="7" width="19"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="7" width="40"/>
+    <col customWidth="1" max="10" min="10" style="7" width="8.33203125"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="7" width="80.1640625"/>
+    <col customWidth="1" max="36" min="13" style="7" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="37" style="7" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -986,7 +1046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1002,21 +1062,21 @@
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="n"/>
       <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1032,8 +1092,8 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1046,14 +1106,14 @@
       <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L3" s="3" t="n"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
@@ -1061,7 +1121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1077,8 +1137,8 @@
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1091,9 +1151,9 @@
       <c r="K6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L6" s="3" t="n"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="D7" s="7" t="s">
         <v>31</v>
       </c>
@@ -1110,7 +1170,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="D8" s="7" t="s">
         <v>36</v>
       </c>
@@ -1121,7 +1181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="D9" s="7" t="s">
         <v>39</v>
       </c>
@@ -1135,7 +1195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
@@ -1146,7 +1206,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1162,8 +1222,8 @@
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
       <c r="H11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1176,9 +1236,9 @@
       <c r="K11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L11" s="3" t="n"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="D12" s="7" t="s">
         <v>46</v>
       </c>
@@ -1195,15 +1255,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="H13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1214,7 +1274,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
@@ -1230,8 +1290,8 @@
       <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
       <c r="H15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1244,9 +1304,9 @@
       <c r="K15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="n"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="D16" s="7" t="s">
         <v>55</v>
       </c>
@@ -1263,7 +1323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="D17" s="7" t="s">
         <v>59</v>
       </c>
@@ -1280,7 +1340,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="D18" s="7" t="s">
         <v>62</v>
       </c>
@@ -1293,11 +1353,11 @@
       <c r="H18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="D19" s="7" t="s">
         <v>41</v>
       </c>
@@ -1305,7 +1365,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
@@ -1321,8 +1381,8 @@
       <c r="E20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
       <c r="H20" s="2" t="s">
         <v>16</v>
       </c>
@@ -1335,9 +1395,9 @@
       <c r="K20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="n"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="D21" s="7" t="s">
         <v>69</v>
       </c>
@@ -1350,11 +1410,11 @@
       <c r="H21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="H22" s="7" t="s">
         <v>34</v>
       </c>
@@ -1362,7 +1422,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="D23" s="7" t="s">
         <v>59</v>
       </c>
@@ -1379,7 +1439,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="D24" s="7" t="s">
         <v>71</v>
       </c>
@@ -1390,7 +1450,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
@@ -1400,12 +1460,12 @@
       <c r="C25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="n"/>
       <c r="E25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="F25" s="3" t="n"/>
+      <c r="G25" s="3" t="n"/>
       <c r="H25" s="2" t="s">
         <v>77</v>
       </c>
@@ -1418,9 +1478,9 @@
       <c r="K25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3" t="n"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="H26" s="7" t="s">
         <v>80</v>
       </c>
@@ -1428,7 +1488,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
@@ -1438,12 +1498,12 @@
       <c r="C27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="n"/>
       <c r="E27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="F27" s="3" t="n"/>
+      <c r="G27" s="3" t="n"/>
       <c r="H27" s="2" t="s">
         <v>84</v>
       </c>
@@ -1456,9 +1516,9 @@
       <c r="K27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="n"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="H28" s="7" t="s">
         <v>80</v>
       </c>
@@ -1466,7 +1526,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
@@ -1476,12 +1536,12 @@
       <c r="C29" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3" t="n"/>
       <c r="E29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
       <c r="H29" s="2" t="s">
         <v>88</v>
       </c>
@@ -1494,9 +1554,9 @@
       <c r="K29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="n"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="H30" s="7" t="s">
         <v>80</v>
       </c>
@@ -1504,7 +1564,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
@@ -1514,12 +1574,12 @@
       <c r="C31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="n"/>
       <c r="E31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
       <c r="H31" s="2" t="s">
         <v>91</v>
       </c>
@@ -1532,9 +1592,9 @@
       <c r="K31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3" t="n"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="H32" s="7" t="s">
         <v>80</v>
       </c>
@@ -1542,7 +1602,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
@@ -1552,12 +1612,12 @@
       <c r="C33" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="n"/>
       <c r="E33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
       <c r="H33" s="2" t="s">
         <v>95</v>
       </c>
@@ -1570,9 +1630,9 @@
       <c r="K33" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="n"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="H34" s="7" t="s">
         <v>98</v>
       </c>
@@ -1580,7 +1640,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
         <v>49</v>
       </c>
@@ -1590,7 +1650,7 @@
       <c r="C35" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3" t="n"/>
       <c r="E35" s="2" t="s">
         <v>94</v>
       </c>
@@ -1600,17 +1660,17 @@
       <c r="G35" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="H35" s="3" t="n"/>
+      <c r="I35" s="3" t="n"/>
       <c r="J35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="n"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="F36" s="7" t="s">
         <v>104</v>
       </c>
@@ -1618,26 +1678,26 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="F37" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="7" t="n">
         <v>2</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="H38" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="7" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="H39" s="7" t="s">
         <v>108</v>
       </c>
@@ -1645,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="H40" s="7" t="s">
         <v>109</v>
       </c>
@@ -1653,7 +1713,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="H41" s="7" t="s">
         <v>111</v>
       </c>
@@ -1661,9 +1721,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="A42" s="2" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>113</v>
@@ -1671,200 +1731,200 @@
       <c r="C42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="n"/>
       <c r="E42" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="G42" s="2" t="n"/>
+      <c r="H42" s="3" t="n"/>
+      <c r="I42" s="3" t="n"/>
       <c r="J42" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="18" r="43" spans="1:12">
       <c r="F43" s="7" t="s">
         <v>116</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="F44" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="F45" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="F46" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="F47" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F46" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F47" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12">
       <c r="F48" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="7" t="n">
         <v>5</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>95</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="H49" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19" r="50" spans="1:12">
       <c r="H50" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="3"/>
+      <c r="D51" s="3" t="n"/>
       <c r="E51" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="G51" s="2" t="n"/>
+      <c r="H51" s="3" t="n"/>
+      <c r="I51" s="3" t="n"/>
       <c r="J51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="L51" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="18" r="52" spans="1:12">
       <c r="F52" s="7" t="s">
         <v>116</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="F53" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="F54" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="F55" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="F56" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F55" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F56" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12">
       <c r="F57" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="7" t="n">
         <v>5</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>95</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="H58" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="7" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12">
       <c r="H59" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19" r="60" spans="1:12">
       <c r="H60" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D61" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="D61" s="3" t="n"/>
       <c r="E61" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="F61" s="3" t="n"/>
+      <c r="G61" s="3" t="n"/>
       <c r="H61" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>17</v>
@@ -1872,107 +1932,107 @@
       <c r="K61" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3" t="n"/>
+    </row>
+    <row r="62" spans="1:12">
       <c r="H62" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="H63" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="H64" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="H65" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I65" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I65" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:12">
       <c r="H66" s="7" t="s">
         <v>80</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="H67" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="H68" s="7" t="s">
         <v>80</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D69" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="D69" s="3" t="n"/>
       <c r="E69" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G69" s="3">
+        <v>147</v>
+      </c>
+      <c r="G69" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="2"/>
+      <c r="H69" s="3" t="n"/>
+      <c r="I69" s="2" t="n"/>
       <c r="J69" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="L69" s="3" t="n"/>
+    </row>
+    <row r="70" spans="1:12">
       <c r="F70" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G70" s="7">
+        <v>149</v>
+      </c>
+      <c r="G70" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12">
       <c r="F71" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G71" s="7">
+        <v>150</v>
+      </c>
+      <c r="G71" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12">
       <c r="F72" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>96</v>
@@ -1981,40 +2041,45 @@
         <v>91</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K41"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.83203125" style="7" customWidth="1"/>
-    <col min="13" max="35" width="10.83203125" style="7" customWidth="1"/>
-    <col min="36" max="16384" width="10.83203125" style="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="7" width="8.1640625"/>
+    <col bestFit="1" customWidth="1" max="4" min="2" style="7" width="12.1640625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="7" width="8.1640625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="7" width="12.83203125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="28.1640625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="7" width="12.83203125"/>
+    <col customWidth="1" max="9" min="9" style="7" width="30.6640625"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="7" width="8.1640625"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
+    <col customWidth="1" max="12" min="12" style="7" width="31.83203125"/>
+    <col customWidth="1" max="35" min="13" style="7" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="36" style="7" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2031,13 +2096,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2052,88 +2117,88 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="D2" s="3" t="n"/>
       <c r="E2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="D3" s="3" t="n"/>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="n"/>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
       <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
@@ -2147,7 +2212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
@@ -2158,14 +2223,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="H8" s="7" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K8"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -102,13 +102,23 @@
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
   <si>
     <t>Run</t>
   </si>
@@ -161,27 +171,34 @@
     <t>open</t>
   </si>
   <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>2017-10-22 16:51:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Line 0] Message: '' executable may have wrong permissions. Please see https://sites.google.com/a/chromium.org/chromedriver/home
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>AT.UI.Home.02</t>
+  </si>
+  <si>
+    <t>Home(Custom URL)</t>
+  </si>
+  <si>
+    <t>Custom URL</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com</t>
+  </si>
+  <si>
     <t>pass</t>
   </si>
   <si>
-    <t>2017-10-21 23:57:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t>AT.UI.Home.02</t>
-  </si>
-  <si>
-    <t>Home(Custom URL)</t>
-  </si>
-  <si>
-    <t>Custom URL</t>
-  </si>
-  <si>
-    <t>http://www.baidu.com</t>
-  </si>
-  <si>
     <t>2017-09-30 11:44:29</t>
   </si>
   <si>
@@ -200,9 +217,6 @@
     <t>Search</t>
   </si>
   <si>
-    <t>2017-10-21 23:57:12</t>
-  </si>
-  <si>
     <t>Search box</t>
   </si>
   <si>
@@ -245,9 +259,6 @@
     <t>Search(Load the saved)</t>
   </si>
   <si>
-    <t>2017-10-21 23:57:15</t>
-  </si>
-  <si>
     <t>(Load the saved)</t>
   </si>
   <si>
@@ -453,9 +464,6 @@
   </si>
   <si>
     <t>headers{</t>
-  </si>
-  <si>
-    <t>2017-10-21 23:57:19</t>
   </si>
   <si>
     <t>user-agent</t>
@@ -1074,20 +1082,22 @@
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="3" t="n"/>
+      <c r="L2" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
@@ -1098,19 +1108,19 @@
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L3" s="3" t="n"/>
     </row>
     <row r="4" spans="1:12">
       <c r="H4" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1118,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1126,13 +1136,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -1143,67 +1153,69 @@
         <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="3" t="n"/>
+        <v>18</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="D7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="D8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="D9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1211,13 +1223,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -1228,15 +1240,17 @@
         <v>16</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="3" t="n"/>
+        <v>18</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="D12" s="7" t="s">
@@ -1246,13 +1260,13 @@
         <v>47</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1265,13 +1279,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1299,7 +1313,7 @@
         <v>53</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>54</v>
@@ -1317,7 +1331,7 @@
         <v>57</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>58</v>
@@ -1334,7 +1348,7 @@
         <v>60</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>61</v>
@@ -1359,10 +1373,10 @@
     </row>
     <row r="19" spans="1:12">
       <c r="D19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1390,7 +1404,7 @@
         <v>53</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>68</v>
@@ -1416,7 +1430,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="H22" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>70</v>
@@ -1433,7 +1447,7 @@
         <v>60</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>61</v>
@@ -1473,7 +1487,7 @@
         <v>78</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>79</v>
@@ -1511,7 +1525,7 @@
         <v>85</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>79</v>
@@ -1549,7 +1563,7 @@
         <v>89</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>79</v>
@@ -1587,7 +1601,7 @@
         <v>85</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>79</v>
@@ -1625,7 +1639,7 @@
         <v>96</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>97</v>
@@ -1663,7 +1677,7 @@
       <c r="H35" s="3" t="n"/>
       <c r="I35" s="3" t="n"/>
       <c r="J35" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>103</v>
@@ -1742,42 +1756,42 @@
       <c r="H42" s="3" t="n"/>
       <c r="I42" s="3" t="n"/>
       <c r="J42" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="L42" s="3" t="s"/>
     </row>
     <row customHeight="1" ht="18" r="43" spans="1:12">
       <c r="F43" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="F44" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="F45" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="F46" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="F47" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -1791,12 +1805,12 @@
         <v>95</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="H49" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row customHeight="1" ht="19" r="50" spans="1:12">
@@ -1804,7 +1818,7 @@
         <v>98</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -1812,7 +1826,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>93</v>
@@ -1828,42 +1842,42 @@
       <c r="H51" s="3" t="n"/>
       <c r="I51" s="3" t="n"/>
       <c r="J51" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L51" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="52" spans="1:12">
       <c r="F52" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="F53" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="F54" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="F55" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="F56" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -1877,7 +1891,7 @@
         <v>95</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -1890,10 +1904,10 @@
     </row>
     <row r="59" spans="1:12">
       <c r="H59" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I59" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row customHeight="1" ht="19" r="60" spans="1:12">
@@ -1901,7 +1915,7 @@
         <v>98</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -1909,25 +1923,25 @@
         <v>49</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="D61" s="3" t="n"/>
       <c r="E61" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F61" s="3" t="n"/>
       <c r="G61" s="3" t="n"/>
       <c r="H61" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="J61" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>103</v>
@@ -1936,28 +1950,28 @@
     </row>
     <row r="62" spans="1:12">
       <c r="H62" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="H63" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="H64" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="H65" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -1965,15 +1979,15 @@
         <v>80</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="H67" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -1981,7 +1995,7 @@
         <v>80</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -1989,17 +2003,17 @@
         <v>49</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="D69" s="3" t="n"/>
       <c r="E69" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="G69" s="3" t="n">
         <v>2</v>
@@ -2007,16 +2021,16 @@
       <c r="H69" s="3" t="n"/>
       <c r="I69" s="2" t="n"/>
       <c r="J69" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L69" s="3" t="n"/>
     </row>
     <row r="70" spans="1:12">
       <c r="F70" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G70" s="7" t="n">
         <v>2</v>
@@ -2024,7 +2038,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="F71" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G71" s="7" t="n">
         <v>1</v>
@@ -2032,7 +2046,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="F72" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>96</v>
@@ -2041,7 +2055,7 @@
         <v>91</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2096,13 +2110,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2122,14 +2136,14 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D2" s="3" t="n"/>
       <c r="E2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F2" s="3" t="n"/>
       <c r="G2" s="3" t="n"/>
@@ -2146,10 +2160,10 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" s="3" t="n"/>
       <c r="E3" s="2" t="s">
@@ -2161,7 +2175,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="3" t="n"/>
       <c r="K3" s="3" t="n"/>
@@ -2169,7 +2183,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="H4" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2177,10 +2191,10 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="2" t="s">
@@ -2192,7 +2206,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" s="3" t="n"/>
       <c r="K5" s="3" t="n"/>
@@ -2200,32 +2214,32 @@
     </row>
     <row r="6" spans="1:12">
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="H8" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -112,13 +112,33 @@
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>Run</t>
   </si>
@@ -171,14 +191,10 @@
     <t>open</t>
   </si>
   <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>2017-10-22 16:51:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Line 0] Message: '' executable may have wrong permissions. Please see https://sites.google.com/a/chromium.org/chromedriver/home
-</t>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>2017-10-22 17:01:07</t>
   </si>
   <si>
     <t xml:space="preserve">   </t>
@@ -196,9 +212,6 @@
     <t>http://www.baidu.com</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
     <t>2017-09-30 11:44:29</t>
   </si>
   <si>
@@ -217,6 +230,9 @@
     <t>Search</t>
   </si>
   <si>
+    <t>2017-10-22 17:01:09</t>
+  </si>
+  <si>
     <t>Search box</t>
   </si>
   <si>
@@ -259,6 +275,9 @@
     <t>Search(Load the saved)</t>
   </si>
   <si>
+    <t>2017-10-22 17:01:12</t>
+  </si>
+  <si>
     <t>(Load the saved)</t>
   </si>
   <si>
@@ -464,6 +483,9 @@
   </si>
   <si>
     <t>headers{</t>
+  </si>
+  <si>
+    <t>2017-10-22 17:01:16</t>
   </si>
   <si>
     <t>user-agent</t>
@@ -1082,22 +1104,20 @@
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="L2" s="3" t="n"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
@@ -1108,19 +1128,19 @@
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="L3" s="3" t="n"/>
     </row>
     <row r="4" spans="1:12">
       <c r="H4" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1128,7 +1148,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1136,13 +1156,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -1153,69 +1173,67 @@
         <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="L6" s="3" t="n"/>
     </row>
     <row r="7" spans="1:12">
       <c r="D7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="D8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="D9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1223,13 +1241,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -1240,17 +1258,15 @@
         <v>16</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="L11" s="3" t="n"/>
     </row>
     <row r="12" spans="1:12">
       <c r="D12" s="7" t="s">
@@ -1260,13 +1276,13 @@
         <v>47</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1279,13 +1295,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1313,7 +1329,7 @@
         <v>53</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>54</v>
@@ -1331,7 +1347,7 @@
         <v>57</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>58</v>
@@ -1348,7 +1364,7 @@
         <v>60</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>61</v>
@@ -1373,10 +1389,10 @@
     </row>
     <row r="19" spans="1:12">
       <c r="D19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1404,7 +1420,7 @@
         <v>53</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>68</v>
@@ -1430,7 +1446,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="H22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>70</v>
@@ -1447,7 +1463,7 @@
         <v>60</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>61</v>
@@ -1487,7 +1503,7 @@
         <v>78</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>79</v>
@@ -1525,7 +1541,7 @@
         <v>85</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>79</v>
@@ -1563,7 +1579,7 @@
         <v>89</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>79</v>
@@ -1601,7 +1617,7 @@
         <v>85</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>79</v>
@@ -1639,7 +1655,7 @@
         <v>96</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>97</v>
@@ -1677,7 +1693,7 @@
       <c r="H35" s="3" t="n"/>
       <c r="I35" s="3" t="n"/>
       <c r="J35" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>103</v>
@@ -1756,42 +1772,42 @@
       <c r="H42" s="3" t="n"/>
       <c r="I42" s="3" t="n"/>
       <c r="J42" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="L42" s="3" t="s"/>
     </row>
     <row customHeight="1" ht="18" r="43" spans="1:12">
       <c r="F43" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="F44" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="F45" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="F46" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="F47" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -1805,12 +1821,12 @@
         <v>95</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="H49" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row customHeight="1" ht="19" r="50" spans="1:12">
@@ -1818,7 +1834,7 @@
         <v>98</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -1826,7 +1842,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>93</v>
@@ -1842,42 +1858,42 @@
       <c r="H51" s="3" t="n"/>
       <c r="I51" s="3" t="n"/>
       <c r="J51" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L51" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="52" spans="1:12">
       <c r="F52" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="F53" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="F54" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="F55" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="F56" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -1891,7 +1907,7 @@
         <v>95</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -1904,10 +1920,10 @@
     </row>
     <row r="59" spans="1:12">
       <c r="H59" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row customHeight="1" ht="19" r="60" spans="1:12">
@@ -1915,7 +1931,7 @@
         <v>98</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -1923,25 +1939,25 @@
         <v>49</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D61" s="3" t="n"/>
       <c r="E61" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F61" s="3" t="n"/>
       <c r="G61" s="3" t="n"/>
       <c r="H61" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>103</v>
@@ -1950,28 +1966,28 @@
     </row>
     <row r="62" spans="1:12">
       <c r="H62" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="H63" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="H64" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="H65" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -1979,15 +1995,15 @@
         <v>80</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="H67" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -1995,7 +2011,7 @@
         <v>80</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2003,17 +2019,17 @@
         <v>49</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D69" s="3" t="n"/>
       <c r="E69" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G69" s="3" t="n">
         <v>2</v>
@@ -2021,16 +2037,16 @@
       <c r="H69" s="3" t="n"/>
       <c r="I69" s="2" t="n"/>
       <c r="J69" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L69" s="3" t="n"/>
     </row>
     <row r="70" spans="1:12">
       <c r="F70" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G70" s="7" t="n">
         <v>2</v>
@@ -2038,7 +2054,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="F71" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G71" s="7" t="n">
         <v>1</v>
@@ -2046,7 +2062,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="F72" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>96</v>
@@ -2055,7 +2071,7 @@
         <v>91</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2110,13 +2126,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2136,14 +2152,14 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D2" s="3" t="n"/>
       <c r="E2" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F2" s="3" t="n"/>
       <c r="G2" s="3" t="n"/>
@@ -2160,10 +2176,10 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D3" s="3" t="n"/>
       <c r="E3" s="2" t="s">
@@ -2175,7 +2191,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="3" t="n"/>
       <c r="K3" s="3" t="n"/>
@@ -2183,7 +2199,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="H4" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2191,10 +2207,10 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="2" t="s">
@@ -2206,7 +2222,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="3" t="n"/>
       <c r="K5" s="3" t="n"/>
@@ -2214,32 +2230,32 @@
     </row>
     <row r="6" spans="1:12">
       <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="H8" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -1,144 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jia/Dropbox/v2test/TestCases/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17620"/>
   </bookViews>
   <sheets>
-    <sheet name="Tests1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Tests2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Tests1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tests2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$41</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests1!$A$1:$K$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tests2!$A$1:$K$8</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="163">
   <si>
     <t>Run</t>
   </si>
@@ -618,74 +512,85 @@
   </si>
   <si>
     <t>AT.Login.13</t>
+  </si>
+  <si>
+    <t>su</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_attribute.value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="12"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="11"/>
-      <sz val="12"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-      <family val="4"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.7999816888943144"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,41 +614,47 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="已访问的超链接" xfId="2"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1009,36 +920,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView showRuler="0" tabSelected="1" topLeftCell="A34" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="7" width="6.5"/>
-    <col customWidth="1" max="2" min="2" style="7" width="18.1640625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="7" width="21.33203125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="18"/>
-    <col customWidth="1" max="5" min="5" style="7" width="9"/>
-    <col customWidth="1" max="6" min="6" style="7" width="11"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="38.1640625"/>
-    <col customWidth="1" max="8" min="8" style="7" width="19"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="7" width="40"/>
-    <col customWidth="1" max="10" min="10" style="7" width="8.33203125"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="7" width="80.1640625"/>
-    <col customWidth="1" max="36" min="13" style="7" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="37" style="7" width="10.83203125"/>
+    <col min="1" max="1" width="6.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11" style="7" customWidth="1"/>
+    <col min="7" max="7" width="38.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="7" customWidth="1"/>
+    <col min="9" max="9" width="40" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="37" width="10.83203125" style="7" customWidth="1"/>
+    <col min="38" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1092,21 +999,21 @@
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="n"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="3" t="n"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1122,8 +1029,8 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1136,14 +1043,14 @@
       <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3" t="n"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
@@ -1151,7 +1058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1167,8 +1074,8 @@
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1181,9 +1088,9 @@
       <c r="K6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="3" t="n"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D7" s="7" t="s">
         <v>31</v>
       </c>
@@ -1200,7 +1107,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" s="7" t="s">
         <v>36</v>
       </c>
@@ -1211,7 +1118,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="7" t="s">
         <v>39</v>
       </c>
@@ -1225,7 +1132,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
@@ -1236,7 +1143,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1252,8 +1159,8 @@
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1266,9 +1173,9 @@
       <c r="K11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="3" t="n"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D12" s="7" t="s">
         <v>46</v>
       </c>
@@ -1285,260 +1192,232 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="7" t="n">
+      <c r="I13" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H15" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H16" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
-      <c r="H15" s="2" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="3" t="n"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="D16" s="7" t="s">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D18" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="D17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="D18" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="7" t="n">
+      <c r="I20" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="D19" s="7" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="2" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="3" t="n"/>
-      <c r="G20" s="3" t="n"/>
-      <c r="H20" s="2" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L20" s="3" t="n"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="D21" s="7" t="s">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D23" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="H22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="D23" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="D24" s="7" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D26" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="3" t="n"/>
-      <c r="E25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="3" t="n"/>
-      <c r="G25" s="3" t="n"/>
-      <c r="H25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L25" s="3" t="n"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="H26" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="3" t="n"/>
+        <v>75</v>
+      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="3" t="n"/>
-      <c r="G27" s="3" t="n"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>17</v>
@@ -1546,9 +1425,9 @@
       <c r="K27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L27" s="3" t="n"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H28" s="7" t="s">
         <v>80</v>
       </c>
@@ -1556,27 +1435,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="3" t="n"/>
+        <v>83</v>
+      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="3" t="n"/>
-      <c r="G29" s="3" t="n"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>17</v>
@@ -1584,9 +1463,9 @@
       <c r="K29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L29" s="3" t="n"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H30" s="7" t="s">
         <v>80</v>
       </c>
@@ -1594,7 +1473,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
@@ -1602,19 +1481,19 @@
         <v>86</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="3" t="n"/>
+        <v>87</v>
+      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="3" t="n"/>
-      <c r="G31" s="3" t="n"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>17</v>
@@ -1622,9 +1501,9 @@
       <c r="K31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L31" s="3" t="n"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H32" s="7" t="s">
         <v>80</v>
       </c>
@@ -1632,381 +1511,403 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="3" t="n"/>
+        <v>90</v>
+      </c>
+      <c r="D33" s="3"/>
       <c r="E33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" s="3" t="n"/>
-      <c r="G33" s="3" t="n"/>
+        <v>76</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L33" s="3" t="n"/>
-    </row>
-    <row r="34" spans="1:12">
+        <v>79</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H34" s="7" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="3" t="n"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H35" s="3" t="n"/>
-      <c r="I35" s="3" t="n"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="J35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L35" s="3" t="n"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="F36" s="7" t="s">
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F38" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="F37" s="7" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F39" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G37" s="7" t="n">
+      <c r="G39" s="7">
         <v>2</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="H38" s="7" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H40" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I38" s="7" t="n">
+      <c r="I40" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="H39" s="7" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H41" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I39" s="7" t="b">
+      <c r="I41" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="H40" s="7" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H42" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I42" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="H41" s="7" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H43" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I43" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="2" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="3" t="n"/>
-      <c r="E42" s="2" t="s">
+      <c r="D44" s="3"/>
+      <c r="E44" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="2" t="n"/>
-      <c r="H42" s="3" t="n"/>
-      <c r="I42" s="3" t="n"/>
-      <c r="J42" s="3" t="s">
+      <c r="G44" s="2"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L42" s="3" t="s"/>
-    </row>
-    <row customHeight="1" ht="18" r="43" spans="1:12">
-      <c r="F43" s="7" t="s">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G45" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="F44" s="7" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F46" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
-      <c r="F45" s="7" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F47" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
-      <c r="F46" s="7" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F48" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
-      <c r="F47" s="7" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F49" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
-      <c r="F48" s="7" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F50" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="7" t="n">
+      <c r="G50" s="7">
         <v>5</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I50" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
-      <c r="H49" s="4" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H51" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="50" spans="1:12">
-      <c r="H50" s="7" t="s">
+    <row r="52" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H52" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I52" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="2" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="3" t="n"/>
-      <c r="E51" s="2" t="s">
+      <c r="D53" s="3"/>
+      <c r="E53" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G51" s="2" t="n"/>
-      <c r="H51" s="3" t="n"/>
-      <c r="I51" s="3" t="n"/>
-      <c r="J51" s="3" t="s">
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L51" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="52" spans="1:12">
-      <c r="F52" s="7" t="s">
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G54" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
-      <c r="F53" s="7" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F55" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
-      <c r="F54" s="7" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F56" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
-      <c r="F55" s="7" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F57" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
-      <c r="F56" s="7" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F58" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
-      <c r="F57" s="7" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F59" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G57" s="7" t="n">
+      <c r="G59" s="7">
         <v>5</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="I59" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
-      <c r="H58" s="4" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H60" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I58" s="7" t="n">
+      <c r="I60" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
-      <c r="H59" s="4" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H61" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="I61" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="60" spans="1:12">
-      <c r="H60" s="7" t="s">
+    <row r="62" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H62" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="I62" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="2" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="3" t="n"/>
-      <c r="E61" s="2" t="s">
+      <c r="D63" s="3"/>
+      <c r="E63" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F61" s="3" t="n"/>
-      <c r="G61" s="3" t="n"/>
-      <c r="H61" s="2" t="s">
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J63" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="K63" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L61" s="3" t="n"/>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="H62" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="H63" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H64" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H65" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H66" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="H67" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H67" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H68" s="7" t="s">
         <v>80</v>
       </c>
@@ -2014,102 +1915,113 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H69" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H70" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D69" s="3" t="n"/>
-      <c r="E69" s="2" t="s">
+      <c r="D71" s="3"/>
+      <c r="E71" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G69" s="3" t="n">
+      <c r="G71" s="3">
         <v>2</v>
       </c>
-      <c r="H69" s="3" t="n"/>
-      <c r="I69" s="2" t="n"/>
-      <c r="J69" s="3" t="s">
+      <c r="H71" s="3"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="K71" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L69" s="3" t="n"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="F70" s="7" t="s">
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F72" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G70" s="7" t="n">
+      <c r="G72" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
-      <c r="F71" s="7" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F73" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G71" s="7" t="n">
+      <c r="G73" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
-      <c r="F72" s="7" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F74" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H74" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I74" s="7" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K41"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <autoFilter ref="A1:K43"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="7" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="4" min="2" style="7" width="12.1640625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="7" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="7" width="12.83203125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="28.1640625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="7" width="12.83203125"/>
-    <col customWidth="1" max="9" min="9" style="7" width="30.6640625"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="7" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
-    <col customWidth="1" max="12" min="12" style="7" width="31.83203125"/>
-    <col customWidth="1" max="35" min="13" style="7" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="36" style="7" width="10.83203125"/>
+    <col min="1" max="1" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.83203125" style="7" customWidth="1"/>
+    <col min="13" max="36" width="10.83203125" style="7" customWidth="1"/>
+    <col min="37" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2147,7 +2059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
@@ -2157,21 +2069,21 @@
       <c r="C2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="3" t="n"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="3" t="n"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
@@ -2181,28 +2093,28 @@
       <c r="C3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="3" t="n"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="n"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -2212,23 +2124,23 @@
       <c r="C5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="3" t="n"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="n"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="3" t="n"/>
-      <c r="K5" s="3" t="n"/>
-      <c r="L5" s="3" t="n"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
@@ -2242,7 +2154,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
@@ -2253,13 +2165,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H8" s="7" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K8"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -1,38 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jia/Dropbox/v2test/TestCases/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17620"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tests1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tests2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tests1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tests2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests1!$A$1:$K$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>Run</t>
   </si>
@@ -88,10 +84,10 @@
     <t>pass</t>
   </si>
   <si>
-    <t>2017-10-22 17:01:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
+    <t>2017-10-22 22:04:50</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
   <si>
     <t>AT.UI.Home.02</t>
@@ -124,7 +120,7 @@
     <t>Search</t>
   </si>
   <si>
-    <t>2017-10-22 17:01:09</t>
+    <t>2017-10-22 22:04:59</t>
   </si>
   <si>
     <t>Search box</t>
@@ -169,7 +165,7 @@
     <t>Search(Load the saved)</t>
   </si>
   <si>
-    <t>2017-10-22 17:01:12</t>
+    <t>2017-10-22 22:05:02</t>
   </si>
   <si>
     <t>(Load the saved)</t>
@@ -181,7 +177,10 @@
     <t>wait</t>
   </si>
   <si>
-    <t>n</t>
+    <t>get_attribute.value</t>
+  </si>
+  <si>
+    <t>log</t>
   </si>
   <si>
     <t>AT.UI.Login.01</t>
@@ -379,7 +378,7 @@
     <t>headers{</t>
   </si>
   <si>
-    <t>2017-10-22 17:01:16</t>
+    <t>2017-10-22 22:05:06</t>
   </si>
   <si>
     <t>user-agent</t>
@@ -451,9 +450,6 @@
     <t>SELECT name FROM help_keyword;</t>
   </si>
   <si>
-    <t>log</t>
-  </si>
-  <si>
     <t>fetchone.name</t>
   </si>
   <si>
@@ -512,85 +508,74 @@
   </si>
   <si>
     <t>AT.Login.13</t>
-  </si>
-  <si>
-    <t>su</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get_attribute.value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>log</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="10"/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="11"/>
       <sz val="12"/>
-      <color theme="11"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="4"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,47 +599,41 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="已访问的超链接" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -920,32 +899,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showRuler="0" tabSelected="1" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
+      <selection activeCell="B7" sqref="B7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11" style="7" customWidth="1"/>
-    <col min="7" max="7" width="38.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="7" customWidth="1"/>
-    <col min="9" max="9" width="40" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="37" width="10.83203125" style="7" customWidth="1"/>
-    <col min="38" max="16384" width="10.83203125" style="7"/>
+    <col customWidth="1" max="1" min="1" style="7" width="6.5"/>
+    <col customWidth="1" max="2" min="2" style="7" width="18.1640625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="7" width="21.33203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="18"/>
+    <col customWidth="1" max="5" min="5" style="7" width="9"/>
+    <col customWidth="1" max="6" min="6" style="7" width="11"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="38.1640625"/>
+    <col customWidth="1" max="8" min="8" style="7" width="19"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="7" width="40"/>
+    <col customWidth="1" max="10" min="10" style="7" width="8.33203125"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="7" width="80.1640625"/>
+    <col customWidth="1" max="37" min="13" style="7" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="38" style="7" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -983,7 +966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -999,21 +982,21 @@
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="n"/>
       <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1029,8 +1012,8 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1043,14 +1026,14 @@
       <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L3" s="3" t="n"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
@@ -1058,7 +1041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1074,8 +1057,8 @@
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1088,9 +1071,9 @@
       <c r="K6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L6" s="3" t="n"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="D7" s="7" t="s">
         <v>31</v>
       </c>
@@ -1107,7 +1090,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="D8" s="7" t="s">
         <v>36</v>
       </c>
@@ -1118,7 +1101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="D9" s="7" t="s">
         <v>39</v>
       </c>
@@ -1132,7 +1115,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
@@ -1143,7 +1126,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1142,8 @@
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
       <c r="H11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1173,9 +1156,9 @@
       <c r="K11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L11" s="3" t="n"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="D12" s="7" t="s">
         <v>46</v>
       </c>
@@ -1192,119 +1175,119 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="H13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="H15" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="H16" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
       <c r="H17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="L17" s="3" t="n"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="D18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="D19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="D20" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="7">
+        <v>65</v>
+      </c>
+      <c r="I20" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="D21" s="7" t="s">
         <v>41</v>
       </c>
@@ -1312,628 +1295,628 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="3" t="n"/>
+      <c r="G22" s="3" t="n"/>
       <c r="H22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="L22" s="3" t="n"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="D23" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="7">
+        <v>65</v>
+      </c>
+      <c r="I23" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="H24" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="D25" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="D26" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="D27" s="3" t="n"/>
       <c r="E27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="F27" s="3" t="n"/>
+      <c r="G27" s="3" t="n"/>
       <c r="H27" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="L27" s="3" t="n"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="H28" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="D29" s="3" t="n"/>
       <c r="E29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
       <c r="H29" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="L29" s="3" t="n"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="H30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="D31" s="3" t="n"/>
       <c r="E31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
       <c r="H31" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="L31" s="3" t="n"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="H32" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
+      <c r="H33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="L33" s="3" t="n"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="H34" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="D35" s="3" t="n"/>
       <c r="E35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="F35" s="3" t="n"/>
+      <c r="G35" s="3" t="n"/>
       <c r="H35" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="L35" s="3" t="n"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="H36" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="D37" s="3" t="n"/>
       <c r="E37" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="H37" s="3" t="n"/>
+      <c r="I37" s="3" t="n"/>
       <c r="J37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="L37" s="3" t="n"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="F38" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="F39" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G39" s="7">
+        <v>107</v>
+      </c>
+      <c r="G39" s="7" t="n">
         <v>2</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="H40" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I40" s="7">
+        <v>108</v>
+      </c>
+      <c r="I40" s="7" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="H41" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I41" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="H42" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="H43" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="D44" s="3" t="n"/>
       <c r="E44" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="G44" s="2" t="n"/>
+      <c r="H44" s="3" t="n"/>
+      <c r="I44" s="3" t="n"/>
       <c r="J44" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K44" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L44" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="18" r="45" spans="1:12">
+      <c r="F45" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="F46" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="F47" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="F48" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="F49" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="F50" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="H51" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19" r="52" spans="1:12">
+      <c r="H52" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="3" t="n"/>
+      <c r="E53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F45" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F46" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F47" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F48" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F49" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F50" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G50" s="7">
-        <v>5</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H51" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+      <c r="G53" s="2" t="n"/>
+      <c r="H53" s="3" t="n"/>
+      <c r="I53" s="3" t="n"/>
       <c r="J53" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="L53" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="18" r="54" spans="1:12">
       <c r="F54" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="F55" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="F56" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="F57" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="F58" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F57" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F58" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12">
       <c r="F59" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G59" s="7">
+        <v>107</v>
+      </c>
+      <c r="G59" s="7" t="n">
         <v>5</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="H60" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I60" s="7">
+        <v>108</v>
+      </c>
+      <c r="I60" s="7" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12">
       <c r="H61" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19" r="62" spans="1:12">
       <c r="H62" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D63" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="D63" s="3" t="n"/>
       <c r="E63" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="F63" s="3" t="n"/>
+      <c r="G63" s="3" t="n"/>
       <c r="H63" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="L63" s="3" t="n"/>
+    </row>
+    <row r="64" spans="1:12">
       <c r="H64" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="H65" s="7" t="s">
         <v>140</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="H66" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="H67" s="7" t="s">
         <v>141</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="H68" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12">
       <c r="H69" s="6" t="s">
         <v>143</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="H70" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>144</v>
@@ -1941,51 +1924,51 @@
       <c r="C71" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="3"/>
+      <c r="D71" s="3" t="n"/>
       <c r="E71" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="2"/>
+      <c r="H71" s="3" t="n"/>
+      <c r="I71" s="2" t="n"/>
       <c r="J71" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3" t="n"/>
+    </row>
+    <row r="72" spans="1:12">
       <c r="F72" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12">
       <c r="F73" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12">
       <c r="F74" s="7" t="s">
         <v>151</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>152</v>
@@ -1993,35 +1976,40 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K43"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.83203125" style="7" customWidth="1"/>
-    <col min="13" max="36" width="10.83203125" style="7" customWidth="1"/>
-    <col min="37" max="16384" width="10.83203125" style="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="7" width="8.1640625"/>
+    <col bestFit="1" customWidth="1" max="4" min="2" style="7" width="12.1640625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="7" width="8.1640625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="7" width="12.83203125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="28.1640625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="7" width="12.83203125"/>
+    <col customWidth="1" max="9" min="9" style="7" width="30.6640625"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="7" width="8.1640625"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
+    <col customWidth="1" max="12" min="12" style="7" width="31.83203125"/>
+    <col customWidth="1" max="36" min="13" style="7" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="37" style="7" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2059,9 +2047,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>155</v>
@@ -2069,23 +2057,23 @@
       <c r="C2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="n"/>
       <c r="E2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>158</v>
@@ -2093,30 +2081,30 @@
       <c r="C3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="n"/>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>159</v>
@@ -2124,23 +2112,23 @@
       <c r="C5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="n"/>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
       <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
@@ -2154,7 +2142,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
@@ -2165,14 +2153,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="H8" s="7" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K8"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
   <si>
     <t>Run</t>
   </si>
@@ -84,7 +84,7 @@
     <t>pass</t>
   </si>
   <si>
-    <t>2017-10-22 22:04:50</t>
+    <t>2017-10-22 23:31:22</t>
   </si>
   <si>
     <t>n</t>
@@ -99,415 +99,421 @@
     <t>Custom URL</t>
   </si>
   <si>
+    <t>http://www.bing.com</t>
+  </si>
+  <si>
+    <t>2017-09-30 11:44:29</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>AT.UI.Search.01</t>
+  </si>
+  <si>
+    <t>Search(Save element)</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>2017-10-22 23:31:24</t>
+  </si>
+  <si>
+    <t>Search box</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>sb_form_q</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>(Save element)</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>searchbox</t>
+  </si>
+  <si>
+    <t>Search btn</t>
+  </si>
+  <si>
+    <t>sb_form_go</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>AT.UI.Search.02</t>
+  </si>
+  <si>
+    <t>Search(Load the saved)</t>
+  </si>
+  <si>
+    <t>2017-10-22 23:31:29</t>
+  </si>
+  <si>
+    <t>(Load the saved)</t>
+  </si>
+  <si>
+    <t>saved</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>get_attribute.value</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>AT.UI.Login.01</t>
+  </si>
+  <si>
+    <t>Login(Click)</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>https://www.v2ex.com/signin</t>
+  </si>
+  <si>
+    <t>2017-09-30 11:44:42</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//input[@type='text' and @class='sl']</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>//input[@type='password' and @class='sl']</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Submit (waitting)</t>
+  </si>
+  <si>
+    <t>//input[@type='submit']</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>AT.UI.Login.02</t>
+  </si>
+  <si>
+    <t>Login(Press)</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>2017-09-25 19:29:57</t>
+  </si>
+  <si>
+    <t>Username (waiting)</t>
+  </si>
+  <si>
+    <t>deepjia</t>
+  </si>
+  <si>
+    <t>press RETURN</t>
+  </si>
+  <si>
+    <t>press</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>AT.BG.Shell.01</t>
+  </si>
+  <si>
+    <t>Shell Command</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>ls -l</t>
+  </si>
+  <si>
+    <t>2017-10-02 19:46:35</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>config.ini</t>
+  </si>
+  <si>
+    <t>AT.BG.Shell.02</t>
+  </si>
+  <si>
+    <t>Bash Script</t>
+  </si>
+  <si>
+    <t>bash</t>
+  </si>
+  <si>
+    <t>Example.sh</t>
+  </si>
+  <si>
+    <t>AT.BG.Shell.03</t>
+  </si>
+  <si>
+    <t>Python Script</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>Example.py</t>
+  </si>
+  <si>
+    <t>Executable File</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>AT.HTTP.Get.01</t>
+  </si>
+  <si>
+    <t>Get Request</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>https://api.github.com</t>
+  </si>
+  <si>
+    <t>2017-10-09 22:02:18</t>
+  </si>
+  <si>
+    <t>in.text</t>
+  </si>
+  <si>
+    <t>emojis</t>
+  </si>
+  <si>
+    <t>AT.HTTP.Get.02</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>{'user-agent': 'my-app/0.0.1'}</t>
+  </si>
+  <si>
+    <t>2017-10-03 23:39:35</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>{'key1': 'value1', 'key2': 'value2'}</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>equal.status_code</t>
+  </si>
+  <si>
+    <t>equal.ok</t>
+  </si>
+  <si>
+    <t>!in.text</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>!equal.text</t>
+  </si>
+  <si>
+    <t>zzzz</t>
+  </si>
+  <si>
+    <t>AT.HTTP.Get.03</t>
+  </si>
+  <si>
+    <t>headers{</t>
+  </si>
+  <si>
+    <t>2017-10-22 23:31:34</t>
+  </si>
+  <si>
+    <t>user-agent</t>
+  </si>
+  <si>
+    <t>"Mozilla/5.0 (Macintosh; Intel Mac OS X 10_12_6) AppleWebKit/604.1.38 (KHTML, like Gecko) Version/11.0 Safari/604.1.38"</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>params{</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>"python"</t>
+  </si>
+  <si>
+    <t>https://www.v2ex.com/api/nodes/show.json</t>
+  </si>
+  <si>
+    <t>log.text</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>AT.HTTP.Get.04</t>
+  </si>
+  <si>
+    <t>2017-10-15 23:44:34</t>
+  </si>
+  <si>
+    <t>"Mozilla/5.0 (MSIE 10.0; Windows NT 6.1; Trident/5.0)"</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>"closed"</t>
+  </si>
+  <si>
+    <t>https://api.github.com/repos/txels/ddt/issues</t>
+  </si>
+  <si>
+    <t>equal.json.0.state</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Add zeros</t>
+  </si>
+  <si>
+    <t>AT.MYSQL.Select.01</t>
+  </si>
+  <si>
+    <t>DB Test</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>fetchone</t>
+  </si>
+  <si>
+    <t>SELECT name FROM help_keyword;</t>
+  </si>
+  <si>
+    <t>fetchone.name</t>
+  </si>
+  <si>
+    <t>fetchall</t>
+  </si>
+  <si>
+    <t>AES_ENCRYPT</t>
+  </si>
+  <si>
+    <t>fetchmany.5</t>
+  </si>
+  <si>
+    <t>AT.Locust.01</t>
+  </si>
+  <si>
+    <t>Load Test</t>
+  </si>
+  <si>
+    <t>locust</t>
+  </si>
+  <si>
+    <t>CLIENT</t>
+  </si>
+  <si>
+    <t>2017-10-09 22:02:22</t>
+  </si>
+  <si>
+    <t>RATE</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>HOST</t>
+  </si>
+  <si>
+    <t>LocustExample.py</t>
+  </si>
+  <si>
+    <t>Locate/Encapsulate</t>
+  </si>
+  <si>
+    <t>Action/Check</t>
+  </si>
+  <si>
+    <t>AT.Login.11</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>uI</t>
+  </si>
+  <si>
+    <t>AT.Login.12</t>
+  </si>
+  <si>
     <t>http://www.baidu.com</t>
   </si>
   <si>
-    <t>2017-09-30 11:44:29</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>http://www.bing.com</t>
-  </si>
-  <si>
-    <t>AT.UI.Search.01</t>
-  </si>
-  <si>
-    <t>Search(Save element)</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>2017-10-22 22:04:59</t>
-  </si>
-  <si>
-    <t>Search box</t>
-  </si>
-  <si>
-    <t>id</t>
+    <t>AT.Login.13</t>
   </si>
   <si>
     <t>kw</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>(Save element)</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>searchbox</t>
-  </si>
-  <si>
-    <t>Search btn</t>
-  </si>
-  <si>
     <t>su</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>find</t>
-  </si>
-  <si>
-    <t>AT.UI.Search.02</t>
-  </si>
-  <si>
-    <t>Search(Load the saved)</t>
-  </si>
-  <si>
-    <t>2017-10-22 22:05:02</t>
-  </si>
-  <si>
-    <t>(Load the saved)</t>
-  </si>
-  <si>
-    <t>saved</t>
-  </si>
-  <si>
-    <t>wait</t>
-  </si>
-  <si>
-    <t>get_attribute.value</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>AT.UI.Login.01</t>
-  </si>
-  <si>
-    <t>Login(Click)</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>https://www.v2ex.com/signin</t>
-  </si>
-  <si>
-    <t>2017-09-30 11:44:42</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>//input[@type='text' and @class='sl']</t>
-  </si>
-  <si>
-    <t>aaaaa</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>//input[@type='password' and @class='sl']</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Submit (waitting)</t>
-  </si>
-  <si>
-    <t>//input[@type='submit']</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>AT.UI.Login.02</t>
-  </si>
-  <si>
-    <t>Login(Press)</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>2017-09-25 19:29:57</t>
-  </si>
-  <si>
-    <t>Username (waiting)</t>
-  </si>
-  <si>
-    <t>deepjia</t>
-  </si>
-  <si>
-    <t>press RETURN</t>
-  </si>
-  <si>
-    <t>press</t>
-  </si>
-  <si>
-    <t>RETURN</t>
-  </si>
-  <si>
-    <t>AT.BG.Shell.01</t>
-  </si>
-  <si>
-    <t>Shell Command</t>
-  </si>
-  <si>
-    <t>shell</t>
-  </si>
-  <si>
-    <t>command</t>
-  </si>
-  <si>
-    <t>ls -l</t>
-  </si>
-  <si>
-    <t>2017-10-02 19:46:35</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>config.ini</t>
-  </si>
-  <si>
-    <t>AT.BG.Shell.02</t>
-  </si>
-  <si>
-    <t>Bash Script</t>
-  </si>
-  <si>
-    <t>bash</t>
-  </si>
-  <si>
-    <t>Example.sh</t>
-  </si>
-  <si>
-    <t>AT.BG.Shell.03</t>
-  </si>
-  <si>
-    <t>Python Script</t>
-  </si>
-  <si>
-    <t>python</t>
-  </si>
-  <si>
-    <t>Example.py</t>
-  </si>
-  <si>
-    <t>Executable File</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>AT.HTTP.Get.01</t>
-  </si>
-  <si>
-    <t>Get Request</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>https://api.github.com</t>
-  </si>
-  <si>
-    <t>2017-10-09 22:02:18</t>
-  </si>
-  <si>
-    <t>in.text</t>
-  </si>
-  <si>
-    <t>emojis</t>
-  </si>
-  <si>
-    <t>AT.HTTP.Get.02</t>
-  </si>
-  <si>
-    <t>headers</t>
-  </si>
-  <si>
-    <t>{'user-agent': 'my-app/0.0.1'}</t>
-  </si>
-  <si>
-    <t>2017-10-03 23:39:35</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t>{'key1': 'value1', 'key2': 'value2'}</t>
-  </si>
-  <si>
-    <t>timeout</t>
-  </si>
-  <si>
-    <t>equal.status_code</t>
-  </si>
-  <si>
-    <t>equal.ok</t>
-  </si>
-  <si>
-    <t>!in.text</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>!equal.text</t>
-  </si>
-  <si>
-    <t>zzzz</t>
-  </si>
-  <si>
-    <t>AT.HTTP.Get.03</t>
-  </si>
-  <si>
-    <t>headers{</t>
-  </si>
-  <si>
-    <t>2017-10-22 22:05:06</t>
-  </si>
-  <si>
-    <t>user-agent</t>
-  </si>
-  <si>
-    <t>"Mozilla/5.0 (Macintosh; Intel Mac OS X 10_12_6) AppleWebKit/604.1.38 (KHTML, like Gecko) Version/11.0 Safari/604.1.38"</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>params{</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>"python"</t>
-  </si>
-  <si>
-    <t>https://www.v2ex.com/api/nodes/show.json</t>
-  </si>
-  <si>
-    <t>log.text</t>
-  </si>
-  <si>
-    <t>Django</t>
-  </si>
-  <si>
-    <t>AT.HTTP.Get.04</t>
-  </si>
-  <si>
-    <t>2017-10-15 23:44:34</t>
-  </si>
-  <si>
-    <t>"Mozilla/5.0 (MSIE 10.0; Windows NT 6.1; Trident/5.0)"</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>"closed"</t>
-  </si>
-  <si>
-    <t>https://api.github.com/repos/txels/ddt/issues</t>
-  </si>
-  <si>
-    <t>equal.json.0.state</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Add zeros</t>
-  </si>
-  <si>
-    <t>AT.MYSQL.Select.01</t>
-  </si>
-  <si>
-    <t>DB Test</t>
-  </si>
-  <si>
-    <t>mysql</t>
-  </si>
-  <si>
-    <t>fetchone</t>
-  </si>
-  <si>
-    <t>SELECT name FROM help_keyword;</t>
-  </si>
-  <si>
-    <t>fetchone.name</t>
-  </si>
-  <si>
-    <t>fetchall</t>
-  </si>
-  <si>
-    <t>AES_ENCRYPT</t>
-  </si>
-  <si>
-    <t>fetchmany.5</t>
-  </si>
-  <si>
-    <t>AT.Locust.01</t>
-  </si>
-  <si>
-    <t>Load Test</t>
-  </si>
-  <si>
-    <t>locust</t>
-  </si>
-  <si>
-    <t>CLIENT</t>
-  </si>
-  <si>
-    <t>2017-10-09 22:02:22</t>
-  </si>
-  <si>
-    <t>RATE</t>
-  </si>
-  <si>
-    <t>NUMBER</t>
-  </si>
-  <si>
-    <t>HOST</t>
-  </si>
-  <si>
-    <t>LocustExample.py</t>
-  </si>
-  <si>
-    <t>Locate/Encapsulate</t>
-  </si>
-  <si>
-    <t>Action/Check</t>
-  </si>
-  <si>
-    <t>AT.Login.11</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>uI</t>
-  </si>
-  <si>
-    <t>AT.Login.12</t>
-  </si>
-  <si>
-    <t>AT.Login.13</t>
   </si>
 </sst>
 </file>
@@ -907,7 +913,7 @@
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView showRuler="0" tabSelected="1" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
-      <selection activeCell="B7" sqref="B7:G7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
@@ -1038,7 +1044,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1046,13 +1052,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -1069,61 +1075,61 @@
         <v>17</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" s="3" t="n"/>
     </row>
     <row r="7" spans="1:12">
       <c r="D7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="D8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="D9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1131,13 +1137,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -1154,30 +1160,30 @@
         <v>17</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L11" s="3" t="n"/>
     </row>
     <row r="12" spans="1:12">
       <c r="D12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="H13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="7" t="n">
         <v>1</v>
@@ -1185,23 +1191,29 @@
     </row>
     <row r="14" spans="1:12">
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="15" spans="1:12">
+      <c r="F15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="H15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="H16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1209,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>15</v>
@@ -1226,62 +1238,62 @@
         <v>16</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L17" s="3" t="n"/>
     </row>
     <row r="18" spans="1:12">
       <c r="D18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="D19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="D20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="I20" s="7" t="n">
         <v>5</v>
@@ -1289,10 +1301,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="D21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1300,13 +1312,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>15</v>
@@ -1317,28 +1329,28 @@
         <v>16</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L22" s="3" t="n"/>
     </row>
     <row r="23" spans="1:12">
       <c r="D23" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I23" s="7" t="n">
         <v>5</v>
@@ -1346,38 +1358,38 @@
     </row>
     <row r="24" spans="1:12">
       <c r="H24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="D25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="D26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1385,37 +1397,37 @@
         <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F27" s="3" t="n"/>
       <c r="G27" s="3" t="n"/>
       <c r="H27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L27" s="3" t="n"/>
     </row>
     <row r="28" spans="1:12">
       <c r="H28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1423,37 +1435,37 @@
         <v>19</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D29" s="3" t="n"/>
       <c r="E29" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F29" s="3" t="n"/>
       <c r="G29" s="3" t="n"/>
       <c r="H29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L29" s="3" t="n"/>
     </row>
     <row r="30" spans="1:12">
       <c r="H30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1461,37 +1473,37 @@
         <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D31" s="3" t="n"/>
       <c r="E31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F31" s="3" t="n"/>
       <c r="G31" s="3" t="n"/>
       <c r="H31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L31" s="3" t="n"/>
     </row>
     <row r="32" spans="1:12">
       <c r="H32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1499,37 +1511,37 @@
         <v>19</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D33" s="3" t="n"/>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F33" s="3" t="n"/>
       <c r="G33" s="3" t="n"/>
       <c r="H33" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L33" s="3" t="n"/>
     </row>
     <row r="34" spans="1:12">
       <c r="H34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1537,37 +1549,37 @@
         <v>19</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="D35" s="3" t="n"/>
       <c r="E35" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F35" s="3" t="n"/>
       <c r="G35" s="3" t="n"/>
       <c r="H35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L35" s="3" t="n"/>
     </row>
     <row r="36" spans="1:12">
       <c r="H36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1575,20 +1587,20 @@
         <v>19</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D37" s="3" t="n"/>
       <c r="E37" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="H37" s="3" t="n"/>
       <c r="I37" s="3" t="n"/>
@@ -1596,32 +1608,32 @@
         <v>17</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L37" s="3" t="n"/>
     </row>
     <row r="38" spans="1:12">
       <c r="F38" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="F39" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G39" s="7" t="n">
         <v>2</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="H40" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I40" s="7" t="n">
         <v>200</v>
@@ -1629,7 +1641,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="H41" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I41" s="7" t="b">
         <v>1</v>
@@ -1637,18 +1649,18 @@
     </row>
     <row r="42" spans="1:12">
       <c r="H42" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I42" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="H43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -1656,17 +1668,17 @@
         <v>11</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D44" s="3" t="n"/>
       <c r="E44" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G44" s="2" t="n"/>
       <c r="H44" s="3" t="n"/>
@@ -1675,66 +1687,66 @@
         <v>17</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L44" s="3" t="s"/>
     </row>
     <row customHeight="1" ht="18" r="45" spans="1:12">
       <c r="F45" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="F46" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="F47" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="F48" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="F49" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="F50" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G50" s="7" t="n">
         <v>5</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="H51" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row customHeight="1" ht="19" r="52" spans="1:12">
       <c r="H52" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -1742,17 +1754,17 @@
         <v>19</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D53" s="3" t="n"/>
       <c r="E53" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G53" s="2" t="n"/>
       <c r="H53" s="3" t="n"/>
@@ -1761,58 +1773,58 @@
         <v>17</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L53" s="3" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="54" spans="1:12">
       <c r="F54" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="F55" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="F56" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="F57" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="F58" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="F59" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G59" s="7" t="n">
         <v>5</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="H60" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I60" s="7" t="n">
         <v>200</v>
@@ -1820,18 +1832,18 @@
     </row>
     <row r="61" spans="1:12">
       <c r="H61" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I61" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row customHeight="1" ht="19" r="62" spans="1:12">
       <c r="H62" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -1839,79 +1851,79 @@
         <v>19</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="D63" s="3" t="n"/>
       <c r="E63" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F63" s="3" t="n"/>
       <c r="G63" s="3" t="n"/>
       <c r="H63" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L63" s="3" t="n"/>
     </row>
     <row r="64" spans="1:12">
       <c r="H64" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="H65" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="H66" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="H67" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="H68" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="H69" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="H70" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -1919,17 +1931,17 @@
         <v>19</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="D71" s="3" t="n"/>
       <c r="E71" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="G71" s="3" t="n">
         <v>2</v>
@@ -1940,13 +1952,13 @@
         <v>17</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L71" s="3" t="n"/>
     </row>
     <row r="72" spans="1:12">
       <c r="F72" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G72" s="7" t="n">
         <v>2</v>
@@ -1954,7 +1966,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="F73" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G73" s="7" t="n">
         <v>1</v>
@@ -1962,16 +1974,16 @@
     </row>
     <row r="74" spans="1:12">
       <c r="F74" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I74" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2026,13 +2038,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2052,14 +2064,14 @@
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D2" s="3" t="n"/>
       <c r="E2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F2" s="3" t="n"/>
       <c r="G2" s="3" t="n"/>
@@ -2076,10 +2088,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" s="3" t="n"/>
       <c r="E3" s="2" t="s">
@@ -2091,7 +2103,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="J3" s="3" t="n"/>
       <c r="K3" s="3" t="n"/>
@@ -2110,7 +2122,7 @@
         <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="2" t="s">
@@ -2122,7 +2134,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="J5" s="3" t="n"/>
       <c r="K5" s="3" t="n"/>
@@ -2130,27 +2142,27 @@
     </row>
     <row r="6" spans="1:12">
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:12">

--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -22,6 +22,16 @@
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -84,7 +94,7 @@
     <t>pass</t>
   </si>
   <si>
-    <t>2017-10-22 23:31:22</t>
+    <t>2017-12-02 11:04:16</t>
   </si>
   <si>
     <t>n</t>
@@ -117,7 +127,7 @@
     <t>Search</t>
   </si>
   <si>
-    <t>2017-10-22 23:31:24</t>
+    <t>2017-12-02 11:04:28</t>
   </si>
   <si>
     <t>Search box</t>
@@ -162,7 +172,7 @@
     <t>Search(Load the saved)</t>
   </si>
   <si>
-    <t>2017-10-22 23:31:29</t>
+    <t>2017-12-02 11:04:38</t>
   </si>
   <si>
     <t>(Load the saved)</t>
@@ -375,7 +385,7 @@
     <t>headers{</t>
   </si>
   <si>
-    <t>2017-10-22 23:31:34</t>
+    <t>2017-12-02 11:04:47</t>
   </si>
   <si>
     <t>user-agent</t>

--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -3,13 +3,33 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Tests1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Tests2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
@@ -94,7 +114,7 @@
     <t>pass</t>
   </si>
   <si>
-    <t>2017-12-02 11:04:16</t>
+    <t>2018-04-10 21:54:28</t>
   </si>
   <si>
     <t>n</t>
@@ -127,7 +147,7 @@
     <t>Search</t>
   </si>
   <si>
-    <t>2017-12-02 11:04:28</t>
+    <t>2018-04-10 21:54:31</t>
   </si>
   <si>
     <t>Search box</t>
@@ -172,7 +192,7 @@
     <t>Search(Load the saved)</t>
   </si>
   <si>
-    <t>2017-12-02 11:04:38</t>
+    <t>2018-04-10 21:54:35</t>
   </si>
   <si>
     <t>(Load the saved)</t>
@@ -385,7 +405,7 @@
     <t>headers{</t>
   </si>
   <si>
-    <t>2017-12-02 11:04:47</t>
+    <t>2018-04-10 21:54:40</t>
   </si>
   <si>
     <t>user-agent</t>

--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -52,6 +52,16 @@
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -114,7 +124,7 @@
     <t>pass</t>
   </si>
   <si>
-    <t>2018-04-10 21:54:28</t>
+    <t>2018-04-10 22:42:47</t>
   </si>
   <si>
     <t>n</t>
@@ -147,7 +157,7 @@
     <t>Search</t>
   </si>
   <si>
-    <t>2018-04-10 21:54:31</t>
+    <t>2018-04-10 22:42:50</t>
   </si>
   <si>
     <t>Search box</t>
@@ -192,7 +202,7 @@
     <t>Search(Load the saved)</t>
   </si>
   <si>
-    <t>2018-04-10 21:54:35</t>
+    <t>2018-04-10 22:42:53</t>
   </si>
   <si>
     <t>(Load the saved)</t>
@@ -405,7 +415,7 @@
     <t>headers{</t>
   </si>
   <si>
-    <t>2018-04-10 21:54:40</t>
+    <t>2018-04-10 22:42:58</t>
   </si>
   <si>
     <t>user-agent</t>

--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -62,6 +62,66 @@
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -124,7 +184,7 @@
     <t>pass</t>
   </si>
   <si>
-    <t>2018-04-10 22:42:47</t>
+    <t>2018-04-11 00:19:12</t>
   </si>
   <si>
     <t>n</t>
@@ -157,7 +217,7 @@
     <t>Search</t>
   </si>
   <si>
-    <t>2018-04-10 22:42:50</t>
+    <t>2018-04-11 00:19:16</t>
   </si>
   <si>
     <t>Search box</t>
@@ -202,7 +262,7 @@
     <t>Search(Load the saved)</t>
   </si>
   <si>
-    <t>2018-04-10 22:42:53</t>
+    <t>2018-04-11 00:19:21</t>
   </si>
   <si>
     <t>(Load the saved)</t>
@@ -415,7 +475,7 @@
     <t>headers{</t>
   </si>
   <si>
-    <t>2018-04-10 22:42:58</t>
+    <t>2018-04-11 00:19:27</t>
   </si>
   <si>
     <t>user-agent</t>

--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -1,134 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jia/Dropbox/Projects/v2test/TestCases/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CBE43D97-B820-1F4B-8CB9-96F99451A5E4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24740" windowHeight="20120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tests1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Tests2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Tests1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tests2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$43</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests1!$A$1:$K$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tests2!$A$1:$K$8</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="175">
   <si>
     <t>Run</t>
   </si>
@@ -319,9 +216,6 @@
     <t>Submit (waitting)</t>
   </si>
   <si>
-    <t>//input[@type='submit']</t>
-  </si>
-  <si>
     <t>waiting</t>
   </si>
   <si>
@@ -614,74 +508,129 @@
   </si>
   <si>
     <t>su</t>
+  </si>
+  <si>
+    <t>input[type='password'][class='sl']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>css_selector</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>input[type='submit']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT.UI.Switch.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch To iframe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://boshuwan.com/contact/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iframe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>press</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="12"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="11"/>
-      <sz val="12"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-      <family val="4"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.7999816888943144"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,41 +654,50 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="已访问的超链接" xfId="2"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1005,36 +963,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView showRuler="0" tabSelected="1" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="7" width="6.5"/>
-    <col customWidth="1" max="2" min="2" style="7" width="18.1640625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="7" width="21.33203125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="18"/>
-    <col customWidth="1" max="5" min="5" style="7" width="9"/>
-    <col customWidth="1" max="6" min="6" style="7" width="11"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="38.1640625"/>
-    <col customWidth="1" max="8" min="8" style="7" width="19"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="7" width="40"/>
-    <col customWidth="1" max="10" min="10" style="7" width="8.33203125"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="7" width="80.1640625"/>
-    <col customWidth="1" max="37" min="13" style="7" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="38" style="7" width="10.83203125"/>
+    <col min="1" max="1" width="6.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11" style="7" customWidth="1"/>
+    <col min="7" max="7" width="38.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="7" customWidth="1"/>
+    <col min="9" max="9" width="40" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="38" width="10.83203125" style="7" customWidth="1"/>
+    <col min="39" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1088,21 +1042,21 @@
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="n"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="3" t="n"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1118,8 +1072,8 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1132,14 +1086,14 @@
       <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3" t="n"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
@@ -1147,7 +1101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1163,8 +1117,8 @@
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1177,9 +1131,9 @@
       <c r="K6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="3" t="n"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D7" s="7" t="s">
         <v>30</v>
       </c>
@@ -1196,7 +1150,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" s="7" t="s">
         <v>35</v>
       </c>
@@ -1207,7 +1161,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="7" t="s">
         <v>38</v>
       </c>
@@ -1221,7 +1175,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F10" s="7" t="s">
         <v>31</v>
       </c>
@@ -1232,7 +1186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1248,8 +1202,8 @@
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1262,9 +1216,9 @@
       <c r="K11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="3" t="n"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D12" s="7" t="s">
         <v>45</v>
       </c>
@@ -1281,15 +1235,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="7" t="n">
+      <c r="I13" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
@@ -1300,7 +1254,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F15" s="7" t="s">
         <v>31</v>
       </c>
@@ -1311,12 +1265,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H16" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -1332,8 +1286,8 @@
       <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1346,9 +1300,9 @@
       <c r="K17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="3" t="n"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D18" s="7" t="s">
         <v>55</v>
       </c>
@@ -1365,15 +1319,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D19" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>33</v>
@@ -1382,24 +1336,24 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D20" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="7" t="n">
+      <c r="I20" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D21" s="7" t="s">
         <v>40</v>
       </c>
@@ -1407,24 +1361,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="3" t="n"/>
-      <c r="G22" s="3" t="n"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="2" t="s">
         <v>16</v>
       </c>
@@ -1435,13 +1389,13 @@
         <v>17</v>
       </c>
       <c r="K22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D23" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L22" s="3" t="n"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="D23" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>56</v>
@@ -1450,21 +1404,21 @@
         <v>57</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="7" t="n">
+        <v>63</v>
+      </c>
+      <c r="I23" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H24" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D25" s="7" t="s">
         <v>59</v>
       </c>
@@ -1481,647 +1435,705 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="3" t="n"/>
+        <v>165</v>
+      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="3" t="n"/>
-      <c r="G27" s="3" t="n"/>
+        <v>15</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="2" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L27" s="3" t="n"/>
-    </row>
-    <row r="28" spans="1:12">
+        <v>67</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="H28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="3" t="n"/>
-      <c r="E29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="3" t="n"/>
-      <c r="G29" s="3" t="n"/>
-      <c r="H29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L29" s="3" t="n"/>
-    </row>
-    <row r="30" spans="1:12">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H30" s="7" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="3" t="n"/>
+        <v>74</v>
+      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="3" t="n"/>
-      <c r="G31" s="3" t="n"/>
-      <c r="H31" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="I31" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H32" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="L31" s="3" t="n"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="H32" s="7" t="s">
+      <c r="I32" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="3" t="n"/>
+        <v>82</v>
+      </c>
+      <c r="D33" s="3"/>
       <c r="E33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="3" t="n"/>
-      <c r="G33" s="3" t="n"/>
+        <v>75</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H34" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="L33" s="3" t="n"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="H34" s="7" t="s">
+      <c r="I34" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I34" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="3" t="n"/>
+        <v>86</v>
+      </c>
+      <c r="D35" s="3"/>
       <c r="E35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35" s="3" t="n"/>
-      <c r="G35" s="3" t="n"/>
+        <v>75</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
       <c r="H35" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L35" s="3" t="n"/>
-    </row>
-    <row r="36" spans="1:12">
+        <v>78</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H36" s="7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="3" t="n"/>
+        <v>89</v>
+      </c>
+      <c r="D37" s="3"/>
       <c r="E37" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H37" s="3" t="n"/>
-      <c r="I37" s="3" t="n"/>
+        <v>75</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="J37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F42" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L37" s="3" t="n"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="F38" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G38" s="7" t="s">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F43" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="F39" s="7" t="s">
+      <c r="G43" s="7">
+        <v>2</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H44" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="7" t="n">
+      <c r="I44" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H45" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I45" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H46" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H47" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F50" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F51" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F52" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F53" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F54" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G54" s="7">
+        <v>5</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H55" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H56" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F58" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F59" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F60" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F61" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F62" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F63" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G63" s="7">
+        <v>5</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H64" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I64" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H65" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H66" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H68" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H69" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H70" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H71" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H72" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H73" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H74" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G75" s="3">
         <v>2</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H75" s="3"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F76" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G76" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F77" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G77" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F78" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="H40" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I40" s="7" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="H41" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I41" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="H42" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="H43" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="3" t="n"/>
-      <c r="E44" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G44" s="2" t="n"/>
-      <c r="H44" s="3" t="n"/>
-      <c r="I44" s="3" t="n"/>
-      <c r="J44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L44" s="3" t="s"/>
-    </row>
-    <row customHeight="1" ht="18" r="45" spans="1:12">
-      <c r="F45" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="F46" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="F47" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="F48" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="F49" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="F50" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G50" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="H51" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="19" r="52" spans="1:12">
-      <c r="H52" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="3" t="n"/>
-      <c r="E53" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G53" s="2" t="n"/>
-      <c r="H53" s="3" t="n"/>
-      <c r="I53" s="3" t="n"/>
-      <c r="J53" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="L53" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="54" spans="1:12">
-      <c r="F54" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="F55" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="F56" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="F57" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="F58" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="F59" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G59" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="H60" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I60" s="7" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="H61" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="19" r="62" spans="1:12">
-      <c r="H62" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D63" s="3" t="n"/>
-      <c r="E63" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F63" s="3" t="n"/>
-      <c r="G63" s="3" t="n"/>
-      <c r="H63" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L63" s="3" t="n"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="H64" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="H65" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="H66" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="H67" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="H68" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="H69" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="H70" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D71" s="3" t="n"/>
-      <c r="E71" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G71" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H71" s="3" t="n"/>
-      <c r="I71" s="2" t="n"/>
-      <c r="J71" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="L71" s="3" t="n"/>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="F72" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G72" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="F73" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G73" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="F74" s="7" t="s">
+      <c r="H78" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I78" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G74" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>151</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K43"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <autoFilter ref="A1:K47" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="7" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="4" min="2" style="7" width="12.1640625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="7" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="7" width="12.83203125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="28.1640625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="7" width="12.83203125"/>
-    <col customWidth="1" max="9" min="9" style="7" width="30.6640625"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="7" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
-    <col customWidth="1" max="12" min="12" style="7" width="31.83203125"/>
-    <col customWidth="1" max="36" min="13" style="7" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="37" style="7" width="10.83203125"/>
+    <col min="1" max="1" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.83203125" style="7" customWidth="1"/>
+    <col min="13" max="37" width="10.83203125" style="7" customWidth="1"/>
+    <col min="38" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2138,13 +2150,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2159,93 +2171,93 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="3" t="n"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="3" t="n"/>
+        <v>154</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="n"/>
-    </row>
-    <row r="4" spans="1:12">
+        <v>157</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="3" t="n"/>
+        <v>154</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="n"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J5" s="3" t="n"/>
-      <c r="K5" s="3" t="n"/>
-      <c r="L5" s="3" t="n"/>
-    </row>
-    <row r="6" spans="1:12">
+        <v>157</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>33</v>
@@ -2254,24 +2266,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H8" s="7" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K8"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:K8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jia/Dropbox/Projects/v2test/TestCases/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CBE43D97-B820-1F4B-8CB9-96F99451A5E4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24740" windowHeight="20120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="20120" windowWidth="24740" xWindow="0" yWindow="440"/>
   </bookViews>
   <sheets>
-    <sheet name="Tests1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tests2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tests1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tests2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests1!$A$1:$K$47</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$47</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$47</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$47</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$47</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$47</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$47</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$47</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>Run</t>
   </si>
@@ -81,7 +86,7 @@
     <t>pass</t>
   </si>
   <si>
-    <t>2018-04-11 00:19:12</t>
+    <t>2018-04-11 01:41:30</t>
   </si>
   <si>
     <t>n</t>
@@ -114,7 +119,7 @@
     <t>Search</t>
   </si>
   <si>
-    <t>2018-04-11 00:19:16</t>
+    <t>2018-04-11 01:41:33</t>
   </si>
   <si>
     <t>Search box</t>
@@ -126,511 +131,492 @@
     <t>sb_form_q</t>
   </si>
   <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>(Save element)</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>searchbox</t>
+  </si>
+  <si>
+    <t>Search btn</t>
+  </si>
+  <si>
+    <t>sb_form_go</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>AT.UI.Search.02</t>
+  </si>
+  <si>
+    <t>Search(Load the saved)</t>
+  </si>
+  <si>
+    <t>2018-04-11 01:41:36</t>
+  </si>
+  <si>
+    <t>(Load the saved)</t>
+  </si>
+  <si>
+    <t>saved</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>get_attribute.value</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>AT.UI.Login.01</t>
+  </si>
+  <si>
+    <t>Login(Click)</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>https://www.v2ex.com/signin</t>
+  </si>
+  <si>
+    <t>2017-09-30 11:44:42</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//input[@type='text' and @class='sl']</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>css_selector</t>
+  </si>
+  <si>
+    <t>input[type='password'][class='sl']</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Submit (waitting)</t>
+  </si>
+  <si>
+    <t>input[type='submit']</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>AT.UI.Login.02</t>
+  </si>
+  <si>
+    <t>Login(Press)</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>2017-09-25 19:29:57</t>
+  </si>
+  <si>
+    <t>Username (waiting)</t>
+  </si>
+  <si>
+    <t>deepjia</t>
+  </si>
+  <si>
+    <t>//input[@type='password' and @class='sl']</t>
+  </si>
+  <si>
+    <t>press RETURN</t>
+  </si>
+  <si>
+    <t>press</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>AT.UI.Switch.01</t>
+  </si>
+  <si>
+    <t>Switch To iframe</t>
+  </si>
+  <si>
+    <t>https://boshuwan.com/contact/</t>
+  </si>
+  <si>
+    <t>2018-04-11 01:41:40</t>
+  </si>
+  <si>
+    <t>tag_name</t>
+  </si>
+  <si>
+    <t>iframe</t>
+  </si>
+  <si>
+    <t>switch_to</t>
+  </si>
+  <si>
+    <t>Field16</t>
+  </si>
+  <si>
+    <t>AT.BG.Shell.01</t>
+  </si>
+  <si>
+    <t>Shell Command</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>ls -l</t>
+  </si>
+  <si>
+    <t>2017-10-02 19:46:35</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>config.ini</t>
+  </si>
+  <si>
+    <t>AT.BG.Shell.02</t>
+  </si>
+  <si>
+    <t>Bash Script</t>
+  </si>
+  <si>
+    <t>bash</t>
+  </si>
+  <si>
+    <t>Example.sh</t>
+  </si>
+  <si>
+    <t>AT.BG.Shell.03</t>
+  </si>
+  <si>
+    <t>Python Script</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>Example.py</t>
+  </si>
+  <si>
+    <t>Executable File</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>AT.HTTP.Get.01</t>
+  </si>
+  <si>
+    <t>Get Request</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>https://api.github.com</t>
+  </si>
+  <si>
+    <t>2017-10-09 22:02:18</t>
+  </si>
+  <si>
+    <t>in.text</t>
+  </si>
+  <si>
+    <t>emojis</t>
+  </si>
+  <si>
+    <t>AT.HTTP.Get.02</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>{'user-agent': 'my-app/0.0.1'}</t>
+  </si>
+  <si>
+    <t>2017-10-03 23:39:35</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>{'key1': 'value1', 'key2': 'value2'}</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>equal.status_code</t>
+  </si>
+  <si>
+    <t>equal.ok</t>
+  </si>
+  <si>
+    <t>!in.text</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>!equal.text</t>
+  </si>
+  <si>
+    <t>zzzz</t>
+  </si>
+  <si>
+    <t>AT.HTTP.Get.03</t>
+  </si>
+  <si>
+    <t>headers{</t>
+  </si>
+  <si>
+    <t>2018-04-11 01:41:45</t>
+  </si>
+  <si>
+    <t>user-agent</t>
+  </si>
+  <si>
+    <t>"Mozilla/5.0 (Macintosh; Intel Mac OS X 10_12_6) AppleWebKit/604.1.38 (KHTML, like Gecko) Version/11.0 Safari/604.1.38"</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>params{</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>"python"</t>
+  </si>
+  <si>
+    <t>https://www.v2ex.com/api/nodes/show.json</t>
+  </si>
+  <si>
+    <t>log.text</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>AT.HTTP.Get.04</t>
+  </si>
+  <si>
+    <t>2017-10-15 23:44:34</t>
+  </si>
+  <si>
+    <t>"Mozilla/5.0 (MSIE 10.0; Windows NT 6.1; Trident/5.0)"</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>"closed"</t>
+  </si>
+  <si>
+    <t>https://api.github.com/repos/txels/ddt/issues</t>
+  </si>
+  <si>
+    <t>equal.json.0.state</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Add zeros</t>
+  </si>
+  <si>
+    <t>AT.MYSQL.Select.01</t>
+  </si>
+  <si>
+    <t>DB Test</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>fetchone</t>
+  </si>
+  <si>
+    <t>SELECT name FROM help_keyword;</t>
+  </si>
+  <si>
+    <t>fetchone.name</t>
+  </si>
+  <si>
+    <t>fetchall</t>
+  </si>
+  <si>
+    <t>AES_ENCRYPT</t>
+  </si>
+  <si>
+    <t>fetchmany.5</t>
+  </si>
+  <si>
+    <t>AT.Locust.01</t>
+  </si>
+  <si>
+    <t>Load Test</t>
+  </si>
+  <si>
+    <t>locust</t>
+  </si>
+  <si>
+    <t>CLIENT</t>
+  </si>
+  <si>
+    <t>2017-10-09 22:02:22</t>
+  </si>
+  <si>
+    <t>RATE</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>HOST</t>
+  </si>
+  <si>
+    <t>LocustExample.py</t>
+  </si>
+  <si>
+    <t>Locate/Encapsulate</t>
+  </si>
+  <si>
+    <t>Action/Check</t>
+  </si>
+  <si>
+    <t>AT.Login.11</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>uI</t>
+  </si>
+  <si>
+    <t>AT.Login.12</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com</t>
+  </si>
+  <si>
+    <t>AT.Login.13</t>
+  </si>
+  <si>
+    <t>kw</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>(Save element)</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>searchbox</t>
-  </si>
-  <si>
-    <t>Search btn</t>
-  </si>
-  <si>
-    <t>sb_form_go</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>find</t>
-  </si>
-  <si>
-    <t>AT.UI.Search.02</t>
-  </si>
-  <si>
-    <t>Search(Load the saved)</t>
-  </si>
-  <si>
-    <t>2018-04-11 00:19:21</t>
-  </si>
-  <si>
-    <t>(Load the saved)</t>
-  </si>
-  <si>
-    <t>saved</t>
-  </si>
-  <si>
-    <t>wait</t>
-  </si>
-  <si>
-    <t>get_attribute.value</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>AT.UI.Login.01</t>
-  </si>
-  <si>
-    <t>Login(Click)</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>https://www.v2ex.com/signin</t>
-  </si>
-  <si>
-    <t>2017-09-30 11:44:42</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>//input[@type='text' and @class='sl']</t>
-  </si>
-  <si>
-    <t>aaaaa</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>//input[@type='password' and @class='sl']</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Submit (waitting)</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>AT.UI.Login.02</t>
-  </si>
-  <si>
-    <t>Login(Press)</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>2017-09-25 19:29:57</t>
-  </si>
-  <si>
-    <t>Username (waiting)</t>
-  </si>
-  <si>
-    <t>deepjia</t>
-  </si>
-  <si>
-    <t>press RETURN</t>
-  </si>
-  <si>
-    <t>press</t>
-  </si>
-  <si>
-    <t>RETURN</t>
-  </si>
-  <si>
-    <t>AT.BG.Shell.01</t>
-  </si>
-  <si>
-    <t>Shell Command</t>
-  </si>
-  <si>
-    <t>shell</t>
-  </si>
-  <si>
-    <t>command</t>
-  </si>
-  <si>
-    <t>ls -l</t>
-  </si>
-  <si>
-    <t>2017-10-02 19:46:35</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>config.ini</t>
-  </si>
-  <si>
-    <t>AT.BG.Shell.02</t>
-  </si>
-  <si>
-    <t>Bash Script</t>
-  </si>
-  <si>
-    <t>bash</t>
-  </si>
-  <si>
-    <t>Example.sh</t>
-  </si>
-  <si>
-    <t>AT.BG.Shell.03</t>
-  </si>
-  <si>
-    <t>Python Script</t>
-  </si>
-  <si>
-    <t>python</t>
-  </si>
-  <si>
-    <t>Example.py</t>
-  </si>
-  <si>
-    <t>Executable File</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>AT.HTTP.Get.01</t>
-  </si>
-  <si>
-    <t>Get Request</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>https://api.github.com</t>
-  </si>
-  <si>
-    <t>2017-10-09 22:02:18</t>
-  </si>
-  <si>
-    <t>in.text</t>
-  </si>
-  <si>
-    <t>emojis</t>
-  </si>
-  <si>
-    <t>AT.HTTP.Get.02</t>
-  </si>
-  <si>
-    <t>headers</t>
-  </si>
-  <si>
-    <t>{'user-agent': 'my-app/0.0.1'}</t>
-  </si>
-  <si>
-    <t>2017-10-03 23:39:35</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t>{'key1': 'value1', 'key2': 'value2'}</t>
-  </si>
-  <si>
-    <t>timeout</t>
-  </si>
-  <si>
-    <t>equal.status_code</t>
-  </si>
-  <si>
-    <t>equal.ok</t>
-  </si>
-  <si>
-    <t>!in.text</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>!equal.text</t>
-  </si>
-  <si>
-    <t>zzzz</t>
-  </si>
-  <si>
-    <t>AT.HTTP.Get.03</t>
-  </si>
-  <si>
-    <t>headers{</t>
-  </si>
-  <si>
-    <t>2018-04-11 00:19:27</t>
-  </si>
-  <si>
-    <t>user-agent</t>
-  </si>
-  <si>
-    <t>"Mozilla/5.0 (Macintosh; Intel Mac OS X 10_12_6) AppleWebKit/604.1.38 (KHTML, like Gecko) Version/11.0 Safari/604.1.38"</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>params{</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>"python"</t>
-  </si>
-  <si>
-    <t>https://www.v2ex.com/api/nodes/show.json</t>
-  </si>
-  <si>
-    <t>log.text</t>
-  </si>
-  <si>
-    <t>Django</t>
-  </si>
-  <si>
-    <t>AT.HTTP.Get.04</t>
-  </si>
-  <si>
-    <t>2017-10-15 23:44:34</t>
-  </si>
-  <si>
-    <t>"Mozilla/5.0 (MSIE 10.0; Windows NT 6.1; Trident/5.0)"</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>"closed"</t>
-  </si>
-  <si>
-    <t>https://api.github.com/repos/txels/ddt/issues</t>
-  </si>
-  <si>
-    <t>equal.json.0.state</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Add zeros</t>
-  </si>
-  <si>
-    <t>AT.MYSQL.Select.01</t>
-  </si>
-  <si>
-    <t>DB Test</t>
-  </si>
-  <si>
-    <t>mysql</t>
-  </si>
-  <si>
-    <t>fetchone</t>
-  </si>
-  <si>
-    <t>SELECT name FROM help_keyword;</t>
-  </si>
-  <si>
-    <t>fetchone.name</t>
-  </si>
-  <si>
-    <t>fetchall</t>
-  </si>
-  <si>
-    <t>AES_ENCRYPT</t>
-  </si>
-  <si>
-    <t>fetchmany.5</t>
-  </si>
-  <si>
-    <t>AT.Locust.01</t>
-  </si>
-  <si>
-    <t>Load Test</t>
-  </si>
-  <si>
-    <t>locust</t>
-  </si>
-  <si>
-    <t>CLIENT</t>
-  </si>
-  <si>
-    <t>2017-10-09 22:02:22</t>
-  </si>
-  <si>
-    <t>RATE</t>
-  </si>
-  <si>
-    <t>NUMBER</t>
-  </si>
-  <si>
-    <t>HOST</t>
-  </si>
-  <si>
-    <t>LocustExample.py</t>
-  </si>
-  <si>
-    <t>Locate/Encapsulate</t>
-  </si>
-  <si>
-    <t>Action/Check</t>
-  </si>
-  <si>
-    <t>AT.Login.11</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>uI</t>
-  </si>
-  <si>
-    <t>AT.Login.12</t>
-  </si>
-  <si>
-    <t>http://www.baidu.com</t>
-  </si>
-  <si>
-    <t>AT.Login.13</t>
-  </si>
-  <si>
-    <t>kw</t>
-  </si>
-  <si>
     <t>su</t>
-  </si>
-  <si>
-    <t>input[type='password'][class='sl']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>css_selector</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>input[type='submit']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT.UI.Switch.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switch To iframe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://boshuwan.com/contact/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iframe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>switch_to</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Field16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>press</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="10"/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="11"/>
       <sz val="12"/>
-      <color theme="11"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <family val="4"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,50 +640,41 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="已访问的超链接" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -963,32 +940,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView showRuler="0" tabSelected="1" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11" style="7" customWidth="1"/>
-    <col min="7" max="7" width="38.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="7" customWidth="1"/>
-    <col min="9" max="9" width="40" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="38" width="10.83203125" style="7" customWidth="1"/>
-    <col min="39" max="16384" width="10.83203125" style="7"/>
+    <col customWidth="1" max="1" min="1" style="7" width="6.5"/>
+    <col customWidth="1" max="2" min="2" style="7" width="18.1640625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="7" width="21.33203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="18"/>
+    <col customWidth="1" max="5" min="5" style="7" width="9"/>
+    <col customWidth="1" max="6" min="6" style="7" width="11"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="38.1640625"/>
+    <col customWidth="1" max="8" min="8" style="7" width="19"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="7" width="40"/>
+    <col customWidth="1" max="10" min="10" style="7" width="8.33203125"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="7" width="80.1640625"/>
+    <col customWidth="1" max="38" min="13" style="7" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="39" style="7" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1042,21 +1023,21 @@
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="n"/>
       <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1072,8 +1053,8 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1086,14 +1067,14 @@
       <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L3" s="3" t="n"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
@@ -1101,7 +1082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1117,8 +1098,8 @@
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1131,9 +1112,9 @@
       <c r="K6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L6" s="3" t="n"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="D7" s="7" t="s">
         <v>30</v>
       </c>
@@ -1150,7 +1131,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="D8" s="7" t="s">
         <v>35</v>
       </c>
@@ -1161,7 +1142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="D9" s="7" t="s">
         <v>38</v>
       </c>
@@ -1175,7 +1156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="F10" s="7" t="s">
         <v>31</v>
       </c>
@@ -1186,7 +1167,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1202,8 +1183,8 @@
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
       <c r="H11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1216,9 +1197,9 @@
       <c r="K11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L11" s="3" t="n"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="D12" s="7" t="s">
         <v>45</v>
       </c>
@@ -1235,15 +1216,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="H13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
@@ -1254,7 +1235,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="F15" s="7" t="s">
         <v>31</v>
       </c>
@@ -1265,12 +1246,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="H16" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -1286,8 +1267,8 @@
       <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
       <c r="H17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1300,9 +1281,9 @@
       <c r="K17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="n"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="D18" s="7" t="s">
         <v>55</v>
       </c>
@@ -1319,41 +1300,41 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="D19" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="D20" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" s="7">
+        <v>65</v>
+      </c>
+      <c r="I20" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="D21" s="7" t="s">
         <v>40</v>
       </c>
@@ -1361,24 +1342,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="3" t="n"/>
+      <c r="G22" s="3" t="n"/>
       <c r="H22" s="2" t="s">
         <v>16</v>
       </c>
@@ -1389,13 +1370,13 @@
         <v>17</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="L22" s="3" t="n"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="D23" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>56</v>
@@ -1404,21 +1385,21 @@
         <v>57</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" s="7">
+        <v>65</v>
+      </c>
+      <c r="I23" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="H24" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="D25" s="7" t="s">
         <v>59</v>
       </c>
@@ -1426,714 +1407,719 @@
         <v>56</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="D26" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="D27" s="2" t="n"/>
       <c r="E27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="F27" s="3" t="n"/>
+      <c r="G27" s="3" t="n"/>
       <c r="H27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="L27" s="3" t="n"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="F28" s="7" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="H30" s="7" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D31" s="3" t="n"/>
       <c r="E31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
       <c r="H31" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="L31" s="3" t="n"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="H32" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="D33" s="3" t="n"/>
       <c r="E33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
       <c r="H33" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="L33" s="3" t="n"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="H34" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="3" t="n"/>
+      <c r="E35" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="F35" s="3" t="n"/>
+      <c r="G35" s="3" t="n"/>
       <c r="H35" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="L35" s="3" t="n"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="H36" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="D37" s="3" t="n"/>
       <c r="E37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="F37" s="3" t="n"/>
+      <c r="G37" s="3" t="n"/>
       <c r="H37" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="L37" s="3" t="n"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="H38" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="D39" s="3" t="n"/>
       <c r="E39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="F39" s="3" t="n"/>
+      <c r="G39" s="3" t="n"/>
       <c r="H39" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="L39" s="3" t="n"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="H40" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="D41" s="3" t="n"/>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="H41" s="3" t="n"/>
+      <c r="I41" s="3" t="n"/>
       <c r="J41" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L41" s="3" t="n"/>
+    </row>
+    <row r="42" spans="1:12">
       <c r="F42" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="F43" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G43" s="7">
-        <v>2</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:12">
       <c r="H44" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I44" s="7">
+        <v>117</v>
+      </c>
+      <c r="I44" s="7" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="H45" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="I45" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="H46" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="H47" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="D48" s="3" t="n"/>
       <c r="E48" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="G48" s="2" t="n"/>
+      <c r="H48" s="3" t="n"/>
+      <c r="I48" s="3" t="n"/>
       <c r="J48" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="L48" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="18" r="49" spans="1:12">
       <c r="F49" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G49" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="F50" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="F51" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="F52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="F53" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="F54" s="7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F50" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F51" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F52" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F53" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G54" s="7">
-        <v>5</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="I54" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="H55" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19" r="56" spans="1:12">
       <c r="H56" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="3" t="n"/>
+      <c r="E57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="G57" s="2" t="n"/>
+      <c r="H57" s="3" t="n"/>
+      <c r="I57" s="3" t="n"/>
       <c r="J57" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="L57" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="18" r="58" spans="1:12">
       <c r="F58" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="F59" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="F60" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="F61" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="F62" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="F63" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G63" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="H64" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F60" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F61" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F62" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F63" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G63" s="7">
-        <v>5</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H64" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I64" s="7">
+      <c r="I64" s="7" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12">
       <c r="H65" s="4" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19" r="66" spans="1:12">
       <c r="H66" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="D67" s="3" t="n"/>
       <c r="E67" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="F67" s="3" t="n"/>
+      <c r="G67" s="3" t="n"/>
       <c r="H67" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L67" s="3" t="n"/>
+    </row>
+    <row r="68" spans="1:12">
       <c r="H68" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12">
       <c r="H69" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="H70" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12">
       <c r="H71" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="H72" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="H73" s="6" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="H74" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D75" s="3"/>
+        <v>154</v>
+      </c>
+      <c r="D75" s="3" t="n"/>
       <c r="E75" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G75" s="3">
+        <v>156</v>
+      </c>
+      <c r="G75" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="2"/>
+      <c r="H75" s="3" t="n"/>
+      <c r="I75" s="2" t="n"/>
       <c r="J75" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="L75" s="3" t="n"/>
+    </row>
+    <row r="76" spans="1:12">
       <c r="F76" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G76" s="7">
+        <v>158</v>
+      </c>
+      <c r="G76" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12">
       <c r="F77" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G77" s="7">
+        <v>159</v>
+      </c>
+      <c r="G77" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12">
       <c r="F78" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K47" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <autoFilter ref="A1:K47"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.83203125" style="7" customWidth="1"/>
-    <col min="13" max="37" width="10.83203125" style="7" customWidth="1"/>
-    <col min="38" max="16384" width="10.83203125" style="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="7" width="8.1640625"/>
+    <col bestFit="1" customWidth="1" max="4" min="2" style="7" width="12.1640625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="7" width="8.1640625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="7" width="12.83203125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="28.1640625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="7" width="12.83203125"/>
+    <col customWidth="1" max="9" min="9" style="7" width="30.6640625"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="7" width="8.1640625"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
+    <col customWidth="1" max="12" min="12" style="7" width="31.83203125"/>
+    <col customWidth="1" max="37" min="13" style="7" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="38" style="7" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2150,13 +2136,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2171,120 +2157,119 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="D2" s="3" t="n"/>
       <c r="E2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+        <v>166</v>
+      </c>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="D3" s="3" t="n"/>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="D5" s="3" t="n"/>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
       <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="F7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="H8" s="7" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:K8"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -3,26 +3,38 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="20120" windowWidth="24740" xWindow="0" yWindow="440"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="20120" windowWidth="24740" xWindow="3760" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="Tests1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Tests2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$47</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$51</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$47</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$51</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$47</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$51</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$47</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$51</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$47</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$51</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$47</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$51</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$47</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$51</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$51</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$51</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$51</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$51</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$51</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$51</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -30,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
   <si>
     <t>Run</t>
   </si>
@@ -65,6 +77,33 @@
     <t>Failure Message</t>
   </si>
   <si>
+    <t>logic</t>
+  </si>
+  <si>
+    <t>Logic.Home.01</t>
+  </si>
+  <si>
+    <t>Custom URL</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>http://www.bing.com</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>2017-09-30 11:44:29</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
     <t>y</t>
   </si>
   <si>
@@ -77,16 +116,7 @@
     <t>Default URL</t>
   </si>
   <si>
-    <t>ui</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>2018-04-11 01:41:30</t>
+    <t>2018-04-11 03:21:02</t>
   </si>
   <si>
     <t>n</t>
@@ -98,18 +128,6 @@
     <t>Home(Custom URL)</t>
   </si>
   <si>
-    <t>Custom URL</t>
-  </si>
-  <si>
-    <t>http://www.bing.com</t>
-  </si>
-  <si>
-    <t>2017-09-30 11:44:29</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
     <t>AT.UI.Search.01</t>
   </si>
   <si>
@@ -119,7 +137,7 @@
     <t>Search</t>
   </si>
   <si>
-    <t>2018-04-11 01:41:33</t>
+    <t>2018-04-11 03:21:04</t>
   </si>
   <si>
     <t>Search box</t>
@@ -164,7 +182,7 @@
     <t>Search(Load the saved)</t>
   </si>
   <si>
-    <t>2018-04-11 01:41:36</t>
+    <t>2018-04-11 03:21:08</t>
   </si>
   <si>
     <t>(Load the saved)</t>
@@ -203,48 +221,51 @@
     <t>xpath</t>
   </si>
   <si>
+    <t>input[type='text'][class='sl']</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>css_selector</t>
+  </si>
+  <si>
+    <t>input[type='password'][class='sl']</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Submit (waitting)</t>
+  </si>
+  <si>
+    <t>input[type='submit']</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>AT.UI.Login.02</t>
+  </si>
+  <si>
+    <t>Login(Press)</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>2017-09-25 19:29:57</t>
+  </si>
+  <si>
+    <t>Username (waiting)</t>
+  </si>
+  <si>
     <t>//input[@type='text' and @class='sl']</t>
   </si>
   <si>
-    <t>aaaaa</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>css_selector</t>
-  </si>
-  <si>
-    <t>input[type='password'][class='sl']</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Submit (waitting)</t>
-  </si>
-  <si>
-    <t>input[type='submit']</t>
-  </si>
-  <si>
-    <t>within</t>
-  </si>
-  <si>
-    <t>AT.UI.Login.02</t>
-  </si>
-  <si>
-    <t>Login(Press)</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>2017-09-25 19:29:57</t>
-  </si>
-  <si>
-    <t>Username (waiting)</t>
-  </si>
-  <si>
     <t>deepjia</t>
   </si>
   <si>
@@ -269,7 +290,7 @@
     <t>https://boshuwan.com/contact/</t>
   </si>
   <si>
-    <t>2018-04-11 01:41:40</t>
+    <t>2018-04-11 03:21:16</t>
   </si>
   <si>
     <t>tag_name</t>
@@ -407,7 +428,7 @@
     <t>headers{</t>
   </si>
   <si>
-    <t>2018-04-11 01:41:45</t>
+    <t>2018-04-11 03:21:22</t>
   </si>
   <si>
     <t>user-agent</t>
@@ -644,7 +665,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -668,6 +689,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -945,28 +970,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView showRuler="0" tabSelected="1" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="7" width="6.5"/>
-    <col customWidth="1" max="2" min="2" style="7" width="18.1640625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="7" width="21.33203125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="18"/>
-    <col customWidth="1" max="5" min="5" style="7" width="9"/>
-    <col customWidth="1" max="6" min="6" style="7" width="11"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="38.1640625"/>
-    <col customWidth="1" max="8" min="8" style="7" width="19"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="7" width="40"/>
-    <col customWidth="1" max="10" min="10" style="7" width="8.33203125"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="7" width="80.1640625"/>
-    <col customWidth="1" max="38" min="13" style="7" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="39" style="7" width="10.83203125"/>
+    <col customWidth="1" max="1" min="1" style="9" width="6.5"/>
+    <col customWidth="1" max="2" min="2" style="9" width="18.1640625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="9" width="21.33203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="9" width="18"/>
+    <col customWidth="1" max="5" min="5" style="9" width="9"/>
+    <col customWidth="1" max="6" min="6" style="9" width="11.5"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="9" width="38.1640625"/>
+    <col customWidth="1" max="8" min="8" style="9" width="19"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="9" width="40"/>
+    <col customWidth="1" max="10" min="10" style="9" width="8.33203125"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="9" width="19.6640625"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="9" width="80.1640625"/>
+    <col customWidth="1" max="38" min="13" style="9" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="39" style="9" width="10.83203125"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1" spans="1:12">
@@ -1015,20 +1040,22 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F2" s="3" t="n"/>
       <c r="G2" s="3" t="n"/>
       <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="n"/>
       <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1038,53 +1065,51 @@
       <c r="L2" s="3" t="n"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
+      <c r="H3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:12">
+      <c r="H4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="3" t="n"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="H4" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="H5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="L5" s="3" t="n"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>26</v>
@@ -1093,999 +1118,1057 @@
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3" t="n"/>
       <c r="G6" s="3" t="n"/>
       <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="3" t="n"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="H7" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="H8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="3" t="n"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="D7" s="7" t="s">
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L9" s="3" t="n"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="D10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="F10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="G10" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="D8" s="7" t="s">
+      <c r="H10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="7" t="s">
+    </row>
+    <row r="11" spans="1:12">
+      <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="D9" s="7" t="s">
+      <c r="H11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="I11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="7" t="s">
+    </row>
+    <row r="12" spans="1:12">
+      <c r="D12" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="F10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="F12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="F13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="3" t="n"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="D15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="H16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="F17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
+      <c r="H17" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="F18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="9" t="n"/>
+      <c r="C19" s="9" t="n"/>
+      <c r="D19" s="9" t="n"/>
+      <c r="E19" s="9" t="n"/>
+      <c r="H19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="I19" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="H20" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
+      <c r="H21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="3" t="n"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="D22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="D23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="D24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="D25" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="H25" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="3" t="n"/>
+      <c r="G26" s="3" t="n"/>
+      <c r="H26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
-      <c r="H11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="I26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="3" t="n"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="D12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="H13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="F14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="F15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="H16" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
-      <c r="H17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="3" t="n"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="D18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="7" t="s">
+      <c r="K26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="3" t="n"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="D27" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="D19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="G27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="H28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="D29" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="D20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="F29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="D21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="3" t="n"/>
-      <c r="G22" s="3" t="n"/>
-      <c r="H22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L22" s="3" t="n"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="D23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="H24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="D25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="D26" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="30" spans="1:12">
+      <c r="D30" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="H30" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="3" t="n"/>
-      <c r="G27" s="3" t="n"/>
-      <c r="H27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="2" t="s">
+      <c r="I30" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L27" s="3" t="n"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="F28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="F29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="H30" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="3" t="n"/>
+        <v>80</v>
+      </c>
+      <c r="D31" s="2" t="n"/>
       <c r="E31" s="2" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="F31" s="3" t="n"/>
       <c r="G31" s="3" t="n"/>
       <c r="H31" s="2" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L31" s="3" t="n"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="H32" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>91</v>
+      <c r="F32" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="3" t="n"/>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="3" t="n"/>
-      <c r="G33" s="3" t="n"/>
-      <c r="H33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L33" s="3" t="n"/>
+      <c r="H33" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="H34" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>91</v>
+      <c r="H34" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D35" s="3" t="n"/>
       <c r="E35" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F35" s="3" t="n"/>
       <c r="G35" s="3" t="n"/>
       <c r="H35" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L35" s="3" t="n"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="H36" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>91</v>
+      <c r="H36" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="D37" s="3" t="n"/>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F37" s="3" t="n"/>
       <c r="G37" s="3" t="n"/>
       <c r="H37" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L37" s="3" t="n"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="H38" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>91</v>
+      <c r="H38" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D39" s="3" t="n"/>
       <c r="E39" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F39" s="3" t="n"/>
       <c r="G39" s="3" t="n"/>
       <c r="H39" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="L39" s="3" t="n"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="H40" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>109</v>
+      <c r="H40" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D41" s="3" t="n"/>
       <c r="E41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="3" t="n"/>
+      <c r="G41" s="3" t="n"/>
+      <c r="H41" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H41" s="3" t="n"/>
-      <c r="I41" s="3" t="n"/>
+      <c r="I41" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="J41" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K41" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L41" s="3" t="n"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="H42" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="3" t="n"/>
+      <c r="E43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" s="3" t="n"/>
+      <c r="G43" s="3" t="n"/>
+      <c r="H43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L43" s="3" t="n"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="H44" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="L41" s="3" t="n"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="F42" s="7" t="s">
+      <c r="C45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="3" t="n"/>
+      <c r="E45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G45" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="F43" s="7" t="s">
+      <c r="H45" s="3" t="n"/>
+      <c r="I45" s="3" t="n"/>
+      <c r="J45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="7" t="n">
+      <c r="L45" s="3" t="n"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="F46" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="F47" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="H44" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="I44" s="7" t="n">
+      <c r="H47" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="H48" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I48" s="9" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
-      <c r="H45" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I45" s="7" t="b">
+    <row r="49" spans="1:12">
+      <c r="H49" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I49" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
-      <c r="H46" s="7" t="s">
+    <row r="50" spans="1:12">
+      <c r="H50" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="H51" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="3" t="n"/>
+      <c r="E52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52" s="2" t="n"/>
+      <c r="H52" s="3" t="n"/>
+      <c r="I52" s="3" t="n"/>
+      <c r="J52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L52" s="3" t="s"/>
+    </row>
+    <row customHeight="1" ht="18" r="53" s="10" spans="1:12">
+      <c r="F53" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="F54" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="F55" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="F56" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="F57" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="F58" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="G58" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="H59" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19" r="60" s="10" spans="1:12">
+      <c r="H60" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="3" t="n"/>
+      <c r="E61" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G61" s="2" t="n"/>
+      <c r="H61" s="3" t="n"/>
+      <c r="I61" s="3" t="n"/>
+      <c r="J61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L61" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="18" r="62" s="10" spans="1:12">
+      <c r="F62" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="F63" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="F64" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="F65" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="F66" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="F67" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G67" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="H68" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="H47" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="3" t="n"/>
-      <c r="E48" s="2" t="s">
+      <c r="I68" s="9" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="H69" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19" r="70" s="10" spans="1:12">
+      <c r="H70" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="3" t="n"/>
+      <c r="E71" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F71" s="3" t="n"/>
+      <c r="G71" s="3" t="n"/>
+      <c r="H71" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L71" s="3" t="n"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="H72" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="H73" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="H74" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="H75" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="H76" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="H77" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="H78" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79" s="3" t="n"/>
+      <c r="E79" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" s="3" t="n"/>
+      <c r="I79" s="2" t="n"/>
+      <c r="J79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L79" s="3" t="n"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="F80" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G80" s="9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="F81" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G81" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="F82" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H82" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G48" s="2" t="n"/>
-      <c r="H48" s="3" t="n"/>
-      <c r="I48" s="3" t="n"/>
-      <c r="J48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L48" s="3" t="s"/>
-    </row>
-    <row customHeight="1" ht="18" r="49" spans="1:12">
-      <c r="F49" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="F50" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="F51" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="F52" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="F53" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="F54" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G54" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="H55" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="19" r="56" spans="1:12">
-      <c r="H56" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="3" t="n"/>
-      <c r="E57" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G57" s="2" t="n"/>
-      <c r="H57" s="3" t="n"/>
-      <c r="I57" s="3" t="n"/>
-      <c r="J57" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="L57" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="58" spans="1:12">
-      <c r="F58" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="F59" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="F60" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="F61" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="F62" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="F63" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G63" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="H64" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I64" s="7" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="H65" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="19" r="66" spans="1:12">
-      <c r="H66" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" s="3" t="n"/>
-      <c r="E67" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F67" s="3" t="n"/>
-      <c r="G67" s="3" t="n"/>
-      <c r="H67" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L67" s="3" t="n"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="H68" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="H69" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="H70" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="H71" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="H72" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="H73" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="H74" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D75" s="3" t="n"/>
-      <c r="E75" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G75" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H75" s="3" t="n"/>
-      <c r="I75" s="2" t="n"/>
-      <c r="J75" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L75" s="3" t="n"/>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="F76" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G76" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="F77" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G77" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="F78" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>161</v>
+      <c r="I82" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K47"/>
+  <autoFilter ref="A1:K51"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
@@ -2105,18 +2188,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="7" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="4" min="2" style="7" width="12.1640625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="7" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="7" width="12.83203125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="7" width="28.1640625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="7" width="12.83203125"/>
-    <col customWidth="1" max="9" min="9" style="7" width="30.6640625"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="7" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
-    <col customWidth="1" max="12" min="12" style="7" width="31.83203125"/>
-    <col customWidth="1" max="37" min="13" style="7" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="38" style="7" width="10.83203125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="9" width="8.1640625"/>
+    <col bestFit="1" customWidth="1" max="4" min="2" style="9" width="12.1640625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="9" width="8.1640625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="9" width="12.83203125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="9" width="28.1640625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="9" width="12.83203125"/>
+    <col customWidth="1" max="9" min="9" style="9" width="30.6640625"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="9" width="8.1640625"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="9" width="19.6640625"/>
+    <col customWidth="1" max="12" min="12" style="9" width="31.83203125"/>
+    <col customWidth="1" max="37" min="13" style="9" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="38" style="9" width="10.83203125"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1" spans="1:12">
@@ -2136,13 +2219,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2159,22 +2242,22 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D2" s="3" t="n"/>
       <c r="E2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F2" s="3" t="n"/>
       <c r="G2" s="3" t="n"/>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="3" t="n"/>
       <c r="J2" s="3" t="n"/>
@@ -2183,89 +2266,89 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D3" s="3" t="n"/>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J3" s="3" t="n"/>
       <c r="K3" s="3" t="n"/>
       <c r="L3" s="3" t="n"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="H4" s="7" t="s">
-        <v>25</v>
+      <c r="H4" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3" t="n"/>
       <c r="G5" s="3" t="n"/>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J5" s="3" t="n"/>
       <c r="K5" s="3" t="n"/>
       <c r="L5" s="3" t="n"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="F6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>34</v>
+      <c r="F6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>40</v>
+      <c r="F7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="H8" s="7" t="s">
-        <v>25</v>
+      <c r="H8" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jia/Dropbox/Projects/v2test/TestCases/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{10677B4A-1EC4-7C44-B67A-E891D4D40D65}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="20120" windowWidth="29280" xWindow="3760" yWindow="440"/>
+    <workbookView xWindow="3760" yWindow="440" windowWidth="29280" windowHeight="20120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tests1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Tests2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Tests1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tests2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$53</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$53</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$53</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$53</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$53</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$53</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$53</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$53</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tests1!$A$1:$K$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tests2!$A$1:$K$8</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="183">
   <si>
     <t>Run</t>
   </si>
@@ -166,9 +159,6 @@
     <t>(Save element)</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>Search btn</t>
   </si>
   <si>
@@ -193,9 +183,6 @@
     <t>(Load the saved)</t>
   </si>
   <si>
-    <t>saved</t>
-  </si>
-  <si>
     <t>wait</t>
   </si>
   <si>
@@ -581,90 +568,97 @@
   </si>
   <si>
     <t>su</t>
+  </si>
+  <si>
+    <t>save_elem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>saved_elem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="12"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="11"/>
-      <sz val="12"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-      <family val="4"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-      <family val="4"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.7999816888943144"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,47 +682,56 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="已访问的超链接" xfId="2"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -994,36 +997,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView showRuler="0" tabSelected="1" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="9" width="6.5"/>
-    <col customWidth="1" max="2" min="2" style="9" width="18.1640625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="9" width="21.33203125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="9" width="18"/>
-    <col customWidth="1" max="5" min="5" style="9" width="9"/>
-    <col customWidth="1" max="6" min="6" style="9" width="11.5"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="9" width="38.1640625"/>
-    <col customWidth="1" max="8" min="8" style="9" width="19"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="9" width="40"/>
-    <col customWidth="1" max="10" min="10" style="9" width="8.33203125"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="9" width="19.6640625"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="9" width="80.1640625"/>
-    <col customWidth="1" max="39" min="13" style="9" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="40" style="9" width="10.83203125"/>
+    <col min="1" max="1" width="6.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="38.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="9" customWidth="1"/>
+    <col min="9" max="9" width="40" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="40" width="10.83203125" style="9" customWidth="1"/>
+    <col min="41" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1061,31 +1060,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="n"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="3" t="n"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F3" s="9" t="s">
         <v>13</v>
       </c>
@@ -1096,7 +1095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1112,24 +1111,24 @@
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="3" t="n"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="3" t="n"/>
-      <c r="K4" s="3" t="n"/>
-      <c r="L4" s="3" t="n"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H6" s="9" t="s">
         <v>23</v>
       </c>
@@ -1137,7 +1136,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1153,21 +1152,21 @@
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="3" t="n"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="3" t="n"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -1183,8 +1182,8 @@
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="2" t="s">
         <v>23</v>
       </c>
@@ -1197,14 +1196,14 @@
       <c r="K8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="3" t="n"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H9" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H10" s="9" t="s">
         <v>23</v>
       </c>
@@ -1212,7 +1211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1228,8 +1227,8 @@
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1242,9 +1241,9 @@
       <c r="K11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="3" t="n"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D12" s="9" t="s">
         <v>40</v>
       </c>
@@ -1261,20 +1260,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D13" s="9" t="s">
         <v>43</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D14" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>13</v>
@@ -1283,29 +1282,29 @@
         <v>16</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>38</v>
@@ -1313,8 +1312,8 @@
       <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1325,16 +1324,16 @@
         <v>30</v>
       </c>
       <c r="K16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L16" s="3" t="n"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="D17" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="F17" s="9" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>15</v>
@@ -1346,15 +1345,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="9" t="n">
+        <v>52</v>
+      </c>
+      <c r="I18" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F19" s="9" t="s">
         <v>13</v>
       </c>
@@ -1362,10 +1361,10 @@
         <v>16</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F20" s="9" t="s">
         <v>13</v>
       </c>
@@ -1373,10 +1372,10 @@
         <v>16</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H21" s="9" t="s">
         <v>18</v>
       </c>
@@ -1384,234 +1383,234 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H22" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="3" t="n"/>
-      <c r="G23" s="3" t="n"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="3" t="n"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="D24" s="9" t="s">
+      <c r="G24" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>41</v>
       </c>
       <c r="I24" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="D25" s="9" t="s">
+      <c r="G25" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>41</v>
       </c>
       <c r="I25" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="D26" s="9" t="s">
+      <c r="H26" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I26" s="9" t="n">
+      <c r="I26" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D27" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="3" t="n"/>
-      <c r="G28" s="3" t="n"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D29" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L28" s="3" t="n"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="D29" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="H29" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I29" s="9" t="n">
+        <v>70</v>
+      </c>
+      <c r="I29" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H30" s="9" t="s">
         <v>41</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D31" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>41</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D32" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="2" t="n"/>
+        <v>83</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="3" t="n"/>
-      <c r="G33" s="3" t="n"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F34" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="L33" s="3" t="n"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="F34" s="9" t="s">
+      <c r="H34" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F35" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>41</v>
@@ -1620,652 +1619,647 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H36" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="3" t="n"/>
-      <c r="E37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F37" s="3" t="n"/>
-      <c r="G37" s="3" t="n"/>
-      <c r="H37" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H38" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="L37" s="3" t="n"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="H38" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D39" s="3" t="n"/>
-      <c r="E39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="3" t="n"/>
-      <c r="G39" s="3" t="n"/>
-      <c r="H39" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H40" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="L39" s="3" t="n"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="H40" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="D41" s="3" t="n"/>
-      <c r="E41" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F41" s="3" t="n"/>
-      <c r="G41" s="3" t="n"/>
-      <c r="H41" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H42" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="L41" s="3" t="n"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="H42" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="3" t="n"/>
+        <v>106</v>
+      </c>
+      <c r="D43" s="3"/>
       <c r="E43" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F43" s="3" t="n"/>
-      <c r="G43" s="3" t="n"/>
+        <v>92</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
       <c r="H43" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K43" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H44" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I44" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="L43" s="3" t="n"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="H44" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="3" t="n"/>
-      <c r="E45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F45" s="3" t="n"/>
-      <c r="G45" s="3" t="n"/>
-      <c r="H45" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K45" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H46" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I46" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="L45" s="3" t="n"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="H46" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="3" t="n"/>
-      <c r="E47" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H47" s="3" t="n"/>
-      <c r="I47" s="3" t="n"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
       <c r="J47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K47" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F48" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="L47" s="3" t="n"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="F48" s="9" t="s">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F49" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G49" s="9">
+        <v>2</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H50" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="F49" s="9" t="s">
+      <c r="I50" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H51" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="G49" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="H50" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I50" s="9" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="H51" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="I51" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H52" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H53" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="I53" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
-      <c r="H53" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" s="3" t="n"/>
+        <v>109</v>
+      </c>
+      <c r="D54" s="3"/>
       <c r="E54" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G54" s="2" t="n"/>
-      <c r="H54" s="3" t="n"/>
-      <c r="I54" s="3" t="n"/>
+        <v>130</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
       <c r="J54" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K54" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L54" s="3" t="s"/>
-    </row>
-    <row customHeight="1" ht="18" r="55" spans="1:12">
-      <c r="F55" s="9" t="s">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F56" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G55" s="7" t="s">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F57" s="9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
-      <c r="F56" s="9" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F58" s="9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="F57" s="9" t="s">
+      <c r="G58" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
-      <c r="F58" s="9" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F59" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F60" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G60" s="9">
+        <v>5</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I60" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G58" s="9" t="s">
+    </row>
+    <row r="61" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H61" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I61" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
-      <c r="F59" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="F60" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G60" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="19" r="61" spans="1:12">
-      <c r="H61" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D62" s="3" t="n"/>
+        <v>109</v>
+      </c>
+      <c r="D62" s="3"/>
       <c r="E62" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G62" s="2" t="n"/>
-      <c r="H62" s="3" t="n"/>
-      <c r="I62" s="3" t="n"/>
+        <v>130</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
       <c r="J62" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K62" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F64" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F65" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F66" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="L62" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="63" spans="1:12">
-      <c r="F63" s="9" t="s">
+      <c r="G66" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F67" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G63" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="F64" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="F65" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="F66" s="9" t="s">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F68" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G68" s="9">
+        <v>5</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I68" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G66" s="4" t="s">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H69" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
-      <c r="F67" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="F68" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G68" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I68" s="9" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I70" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H71" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="H69" s="4" t="s">
+      <c r="I71" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
-      <c r="H70" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I70" s="9" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="H71" s="4" t="s">
+    <row r="72" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H72" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I72" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="I71" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="19" r="72" spans="1:12">
-      <c r="H72" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D73" s="3" t="n"/>
-      <c r="E73" s="2" t="s">
+      <c r="I73" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="F73" s="3" t="n"/>
-      <c r="G73" s="3" t="n"/>
-      <c r="H73" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="L73" s="3" t="n"/>
-    </row>
-    <row r="74" spans="1:12">
+        <v>119</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H74" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H75" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H76" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H77" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H78" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I78" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="I75" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="H76" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="H77" s="9" t="s">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H79" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I77" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="H78" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="I78" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="H79" s="6" t="s">
-        <v>160</v>
-      </c>
       <c r="I79" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H80" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D81" s="3" t="n"/>
-      <c r="E81" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G81" s="3" t="n">
+      <c r="G81" s="3">
         <v>2</v>
       </c>
-      <c r="H81" s="3" t="n"/>
-      <c r="I81" s="2" t="n"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="2"/>
       <c r="J81" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K81" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F82" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G82" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F83" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="L81" s="3" t="n"/>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="F82" s="9" t="s">
+      <c r="G83" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F84" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="G82" s="9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="F83" s="9" t="s">
+      <c r="G84" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I84" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G83" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="F84" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>169</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K53"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <autoFilter ref="A1:K53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="9" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="4" min="2" style="9" width="12.1640625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="9" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="9" width="12.83203125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="9" width="28.1640625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="9" width="12.83203125"/>
-    <col customWidth="1" max="9" min="9" style="9" width="30.6640625"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="9" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="9" width="19.6640625"/>
-    <col customWidth="1" max="12" min="12" style="9" width="31.83203125"/>
-    <col customWidth="1" max="38" min="13" style="9" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="39" style="9" width="10.83203125"/>
+    <col min="1" max="1" width="8.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.83203125" style="9" customWidth="1"/>
+    <col min="13" max="39" width="10.83203125" style="9" customWidth="1"/>
+    <col min="40" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2274,13 +2268,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2295,119 +2289,120 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="3" t="n"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="3" t="n"/>
+        <v>173</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="n"/>
-    </row>
-    <row r="4" spans="1:12">
+        <v>176</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H4" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="3" t="n"/>
+        <v>173</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="n"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J5" s="3" t="n"/>
-      <c r="K5" s="3" t="n"/>
-      <c r="L5" s="3" t="n"/>
-    </row>
-    <row r="6" spans="1:12">
+        <v>176</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H8" s="9" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K8"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:K8" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestCases/Example.xlsx
+++ b/TestCases/Example.xlsx
@@ -24,18 +24,6 @@
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$55</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$55</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$55</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$55</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$55</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$55</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Tests1!$A$1:$K$55</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Tests2!$A$1:$K$8</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -161,7 +149,7 @@
     <t>pass</t>
   </si>
   <si>
-    <t>2018-04-11 12:57:25</t>
+    <t>2018-04-11 13:06:47</t>
   </si>
   <si>
     <t>Search box</t>
@@ -197,7 +185,7 @@
     <t>Search(Load the saved)</t>
   </si>
   <si>
-    <t>2018-04-11 12:57:29</t>
+    <t>2018-04-11 13:06:50</t>
   </si>
   <si>
     <t>(Load the saved)</t>
@@ -269,7 +257,7 @@
     <t>https://boshuwan.com/contact/</t>
   </si>
   <si>
-    <t>2018-04-11 12:57:38</t>
+    <t>2018-04-11 13:07:00</t>
   </si>
   <si>
     <t>tag_name</t>
@@ -278,7 +266,7 @@
     <t>iframe</t>
   </si>
   <si>
-    <t>switch_to</t>
+    <t>switch_to.frame</t>
   </si>
   <si>
     <t>Model01.name</t>
@@ -296,7 +284,7 @@
     <t>headers{</t>
   </si>
   <si>
-    <t>2018-04-11 12:57:43</t>
+    <t>2018-04-11 13:07:05</t>
   </si>
   <si>
     <t>user-agent</t>
@@ -989,8 +977,8 @@
     <col customWidth="1" max="10" min="10" style="7" width="8.33203125"/>
     <col bestFit="1" customWidth="1" max="11" min="11" style="7" width="19.6640625"/>
     <col bestFit="1" customWidth="1" max="12" min="12" style="7" width="80.1640625"/>
-    <col customWidth="1" max="41" min="13" style="7" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="42" style="7" width="10.83203125"/>
+    <col customWidth="1" max="42" min="13" style="7" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="43" style="7" width="10.83203125"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="5" spans="1:12">
@@ -2090,8 +2078,8 @@
     <col bestFit="1" customWidth="1" max="10" min="10" style="4" width="8.1640625"/>
     <col bestFit="1" customWidth="1" max="11" min="11" style="4" width="19.6640625"/>
     <col customWidth="1" max="12" min="12" style="4" width="31.83203125"/>
-    <col customWidth="1" max="40" min="13" style="4" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="41" style="4" width="10.83203125"/>
+    <col customWidth="1" max="41" min="13" style="4" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="42" style="4" width="10.83203125"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1" spans="1:12">
